--- a/Document/Database.xlsx
+++ b/Document/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="12" activeTab="16" xr2:uid="{47BC1BFC-CA47-4285-9565-C77701D0B0C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="17" activeTab="22" xr2:uid="{47BC1BFC-CA47-4285-9565-C77701D0B0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="version" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,20 @@
     <sheet name="amphur" sheetId="7" r:id="rId7"/>
     <sheet name="district" sheetId="8" r:id="rId8"/>
     <sheet name="zipcode" sheetId="9" r:id="rId9"/>
-    <sheet name="type_fund" sheetId="10" r:id="rId10"/>
-    <sheet name="history_STD" sheetId="11" r:id="rId11"/>
-    <sheet name="Brethren" sheetId="16" r:id="rId12"/>
-    <sheet name="history_Edu_STD" sheetId="12" r:id="rId13"/>
-    <sheet name="family_STD" sheetId="13" r:id="rId14"/>
-    <sheet name="income_expenses_STD" sheetId="14" r:id="rId15"/>
-    <sheet name="activity_STD" sheetId="15" r:id="rId16"/>
+    <sheet name="history_STD" sheetId="11" r:id="rId10"/>
+    <sheet name="Brethren" sheetId="16" r:id="rId11"/>
+    <sheet name="history_Edu_STD" sheetId="12" r:id="rId12"/>
+    <sheet name="family_STD" sheetId="13" r:id="rId13"/>
+    <sheet name="income_expenses_STD" sheetId="14" r:id="rId14"/>
+    <sheet name="activity_STD" sheetId="15" r:id="rId15"/>
+    <sheet name="work_schedule" sheetId="19" r:id="rId16"/>
     <sheet name="ER_Student" sheetId="17" r:id="rId17"/>
+    <sheet name="ER_Student (2)" sheetId="18" r:id="rId18"/>
+    <sheet name="work_area" sheetId="20" r:id="rId19"/>
+    <sheet name="authorities" sheetId="24" r:id="rId20"/>
+    <sheet name="type_fund" sheetId="10" r:id="rId21"/>
+    <sheet name="uploadefile" sheetId="26" r:id="rId22"/>
+    <sheet name="add_activity" sheetId="27" r:id="rId23"/>
   </sheets>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="306">
   <si>
     <t>เวอร์ชั่น</t>
   </si>
@@ -817,13 +823,164 @@
   </si>
   <si>
     <t>ER Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty_id  major_id                brethren_id
+history_edu_id
+family_id
+activity_STD_id
+income_expenses_STD_id
+district_id
+amphur_id
+province_id
+geo_id
+</t>
+  </si>
+  <si>
+    <t>geo_id   province_id</t>
+  </si>
+  <si>
+    <t>ER:Student</t>
+  </si>
+  <si>
+    <t>work_schedule</t>
+  </si>
+  <si>
+    <t>เวลาการทำงานของนักศึกษา</t>
+  </si>
+  <si>
+    <t>timein</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>เวลาเริ่มงาน</t>
+  </si>
+  <si>
+    <t>เวลาออกงาน</t>
+  </si>
+  <si>
+    <t>จำนวนชั่วโมงทั้งหมดที่ทำต่อวัน</t>
+  </si>
+  <si>
+    <t>รายละเอียดการทำงาน</t>
+  </si>
+  <si>
+    <t>รหัสเจ้าหน้าที่ควบคุมงาน</t>
+  </si>
+  <si>
+    <t>work_area_id</t>
+  </si>
+  <si>
+    <t>รหัสสถานที่ทำงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_id            authorities_id work_area_id
+</t>
+  </si>
+  <si>
+    <t>สถานที่ทำงานที่นักศึกษาสามารถไปทำงานได้</t>
+  </si>
+  <si>
+    <t>authorities_id</t>
+  </si>
+  <si>
+    <t>authorities</t>
+  </si>
+  <si>
+    <t>ชื่อผู้ควบคุมงานนักศึกษา</t>
+  </si>
+  <si>
+    <t>นามสกุลผู้ควบคุมงาน</t>
+  </si>
+  <si>
+    <t>รายชื่อผู้ควบคุมงานนักศึกษา</t>
+  </si>
+  <si>
+    <t>การอัพโหลดไฟล์ของเจ้าหน้าที่</t>
+  </si>
+  <si>
+    <t>uploadefile</t>
+  </si>
+  <si>
+    <t>add_activity</t>
+  </si>
+  <si>
+    <t>การเพิ่มกิจกรรมและกำหนดการต่างๆของเจ้าหน้าที่ กยศ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description </t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>officer_id</t>
+  </si>
+  <si>
+    <t>type_fund_id</t>
+  </si>
+  <si>
+    <t>timestamp with time zone</t>
+  </si>
+  <si>
+    <t>คำอธิบายเกี่ยวกับไฟล์</t>
+  </si>
+  <si>
+    <t>ชื่อไฟล์</t>
+  </si>
+  <si>
+    <t>วันที่อัพโหลด</t>
+  </si>
+  <si>
+    <t>รหัสเจ้าหน้าที่</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>time_start</t>
+  </si>
+  <si>
+    <t>time_end</t>
+  </si>
+  <si>
+    <t>วันที่ทำกิจกรรม</t>
+  </si>
+  <si>
+    <t>เวลาเริ่มต้นทำกิจกรรม</t>
+  </si>
+  <si>
+    <t>เวลาสิ้นสุดการทำกิจกรรม</t>
+  </si>
+  <si>
+    <t>รายละเอียดกิจกรรม</t>
+  </si>
+  <si>
+    <t>approve</t>
+  </si>
+  <si>
+    <t>การยืนยันการทำงานจากเจ้าหน้าที่คุมงาน</t>
+  </si>
+  <si>
+    <t>1 ยืนยัน,null ไม่ยืนยัน</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +1051,22 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Tahoma"/>
@@ -934,6 +1107,22 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1065,7 +1254,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1106,22 +1295,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1133,26 +1307,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1163,92 +1322,128 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1256,35 +1451,125 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4440,6 +4725,1651 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60D6C0F-9FAF-4CB0-ABD7-97D6750DD7DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8143875" y="7467600"/>
+          <a:ext cx="0" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Straight Arrow Connector 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327A9B78-79E1-4537-AB2B-CD57BAC78EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="9553575"/>
+          <a:ext cx="0" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1085848</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695323</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="104" name="Group 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F27BAE-8F06-4832-B2CA-9807603876F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8734423" y="9486898"/>
+          <a:ext cx="714375" cy="1123951"/>
+          <a:chOff x="9784129" y="7539962"/>
+          <a:chExt cx="617412" cy="3737638"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="107" name="Straight Connector 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97BF418E-F8AE-493F-9836-206FFCA71790}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9784129" y="11277600"/>
+            <a:ext cx="617412" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="109" name="Straight Connector 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB208C1-5498-4EA5-99AF-8AB2A636C2F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="9784287" y="7539962"/>
+            <a:ext cx="0" cy="3729163"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="111" name="Straight Arrow Connector 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E18A7D9-2402-4CE7-A14F-9421E457E7AD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9785647" y="7543800"/>
+            <a:ext cx="596602" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Straight Arrow Connector 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C008342-8402-423C-B0D4-B7730B4240D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8562975" y="10144126"/>
+          <a:ext cx="0" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>673554</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>78922</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57133</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA1507A-1279-4FC4-BEAC-8469227D11E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16713654" y="10470694"/>
+          <a:ext cx="776968" cy="1540314"/>
+          <a:chOff x="9629775" y="16935450"/>
+          <a:chExt cx="771525" cy="2238379"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Straight Connector 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FE46E7-1BB0-44AC-9778-0BCF9BA34269}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9629775" y="16944975"/>
+            <a:ext cx="419100" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="Straight Connector 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65D4ADE-1522-403D-9138-91D61EB38635}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10058400" y="16935450"/>
+            <a:ext cx="0" cy="2238375"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD36F104-5C69-4D68-92BD-BE9CC04BFBF2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10067925" y="19173825"/>
+            <a:ext cx="333375" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9527</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>78922</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="Group 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7541CA09-B9EC-4DEB-96E4-ABA6A7EEE410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipV="1">
+          <a:off x="16735427" y="9232446"/>
+          <a:ext cx="755195" cy="1110342"/>
+          <a:chOff x="9629775" y="16935450"/>
+          <a:chExt cx="1523760" cy="2238375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="87" name="Straight Connector 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDAA6EB-DD07-4BB1-83AD-01580BD2B455}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9629775" y="16944975"/>
+            <a:ext cx="419100" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="88" name="Straight Connector 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB9C30F-87C6-4704-830B-A555FA524B08}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10058400" y="16935450"/>
+            <a:ext cx="0" cy="2238375"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="89" name="Straight Arrow Connector 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F7F78C-1AC9-4B6C-9230-D6AC93689598}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="10067924" y="19173825"/>
+            <a:ext cx="1085611" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B434F412-A5CD-4F96-A959-E14444DAEEAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="1171575"/>
+          <a:ext cx="1228725" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Arrow Connector 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8488D2A4-15F8-4694-9454-2B47F63A66A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="2171700"/>
+          <a:ext cx="1190625" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Arrow Connector 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738FB8B7-F143-48CF-BDBA-A87E9EBED1BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="3800475"/>
+          <a:ext cx="1200150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Straight Arrow Connector 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F904E42F-4E33-4882-9EE4-3B90014DDDFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3095625" y="3838575"/>
+          <a:ext cx="1190625" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Straight Arrow Connector 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3683F2A9-398A-47FF-89AE-2C34E31B7ABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3086100" y="5086350"/>
+          <a:ext cx="1171575" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Straight Arrow Connector 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE672E8-6A07-4BD0-9BFB-0627AF3B9242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6210300" y="2333625"/>
+          <a:ext cx="1447800" cy="1447801"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Straight Arrow Connector 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C00B76C-23E7-46B3-8211-DC76354A9B43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6562725" y="1809751"/>
+          <a:ext cx="2019300" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Arrow Connector 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D321838-6D8E-47C1-A7CE-EF73EE24D5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="3971925"/>
+          <a:ext cx="1447800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Straight Arrow Connector 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A692DE3-9701-457B-8AEC-D544ADC77075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="4276725"/>
+          <a:ext cx="1447800" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Straight Arrow Connector 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E3F69A-FCF1-4EAD-AF31-2D23AA568EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="4772025"/>
+          <a:ext cx="1419225" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Straight Arrow Connector 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA80630-7905-43E2-9700-D02778831B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="3714750"/>
+          <a:ext cx="1371600" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Straight Arrow Connector 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8161B26-C02E-4D20-9374-65B23CEF1C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9572625" y="5181600"/>
+          <a:ext cx="1390650" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Straight Arrow Connector 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BCD1DBC-B411-4955-A7F0-6FB73F53B921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9591675" y="5181600"/>
+          <a:ext cx="1371600" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="Straight Arrow Connector 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABE87E4-90AE-43AD-B2E8-87534D9C1B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8810625" y="2028825"/>
+          <a:ext cx="0" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2371725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76491EEC-500C-4726-8258-89BC1471FE70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3057525" y="5495925"/>
+          <a:ext cx="1752600" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC491DB-3A48-4182-B5B1-B8C5592EBA6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="8486775"/>
+          <a:ext cx="0" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2390774</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714374</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="Group 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE55961-A267-4044-AF69-2092C061C1C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3076574" y="8239124"/>
+          <a:ext cx="714375" cy="2133600"/>
+          <a:chOff x="9784129" y="7539962"/>
+          <a:chExt cx="617412" cy="3737638"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="35" name="Straight Connector 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568021A0-8018-44A2-B1BB-B821BDCC516C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9784129" y="11277600"/>
+            <a:ext cx="617412" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="36" name="Straight Connector 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CCBFCE-249D-4840-9FD0-C90B936D90BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="9784287" y="7539962"/>
+            <a:ext cx="0" cy="3729163"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A204473-59E7-4F71-BB55-E0A65A40F93E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9785647" y="7543800"/>
+            <a:ext cx="596602" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2190C5E5-C036-44AA-9186-B84383473205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="9744075"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4815,121 +6745,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B4FEE2-36D3-4A0C-B370-12C27E87E7D2}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
-  <cols>
-    <col min="1" max="1" width="13.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="15.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="16">
-        <v>1</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="16">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E718DA-DFD9-4C42-84B6-36FD0D0E2E59}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
@@ -4938,813 +6757,813 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9" style="27"/>
-    <col min="3" max="3" width="24.375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="27" customWidth="1"/>
-    <col min="5" max="7" width="18.25" style="27" customWidth="1"/>
-    <col min="8" max="8" width="31.625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="27" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="27" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="13.375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9" style="22"/>
+    <col min="3" max="3" width="24.375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="22" customWidth="1"/>
+    <col min="5" max="7" width="18.25" style="22" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="22" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="26">
+      <c r="A4" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="26">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="26">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="26">
+      <c r="A7" s="21">
         <v>4</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="26">
+      <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="26">
+      <c r="A9" s="21">
         <v>6</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="26">
+      <c r="A10" s="21">
         <v>7</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="26">
+      <c r="A11" s="21">
         <v>8</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="22" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="26">
+      <c r="A12" s="21">
         <v>9</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="26">
+      <c r="A13" s="21">
         <v>10</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="22" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="26">
+      <c r="A14" s="21">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="39">
-      <c r="A15" s="26">
+      <c r="A15" s="21">
         <v>12</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="26">
+      <c r="A16" s="21">
         <v>13</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="22" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="26">
+      <c r="A17" s="21">
         <v>14</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="26">
+      <c r="A18" s="21">
         <v>15</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="26">
+      <c r="A19" s="21">
         <v>16</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="26">
+      <c r="A20" s="21">
         <v>17</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="22" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="26">
+      <c r="A21" s="21">
         <v>18</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="22" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="26">
+      <c r="A22" s="21">
         <v>19</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="22" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="26">
+      <c r="A23" s="21">
         <v>20</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="26">
+      <c r="A24" s="21">
         <v>21</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="22" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="26">
+      <c r="A25" s="21">
         <v>22</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="26">
+      <c r="A26" s="21">
         <v>23</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="26">
+      <c r="A27" s="21">
         <v>24</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="26">
+      <c r="A28" s="21">
         <v>25</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="26">
+      <c r="A29" s="21">
         <v>26</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="22" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="26">
+      <c r="A30" s="21">
         <v>27</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="26">
+      <c r="A31" s="21">
         <v>28</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="26">
+      <c r="A32" s="21">
         <v>29</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="26">
+      <c r="A33" s="21">
         <v>30</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="22" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="26">
+      <c r="A34" s="21">
         <v>31</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="22" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="26">
+      <c r="A35" s="21">
         <v>32</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="26">
+      <c r="A36" s="21">
         <v>33</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="26">
+      <c r="A37" s="21">
         <v>34</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="26">
+      <c r="A38" s="21">
         <v>35</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="26">
+      <c r="A39" s="21">
         <v>36</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="22" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="26">
+      <c r="A40" s="21">
         <v>37</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="26">
+      <c r="A41" s="21">
         <v>38</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="H41" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="26">
+      <c r="A42" s="21">
         <v>39</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="39">
-      <c r="A43" s="26">
+      <c r="A43" s="21">
         <v>40</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="39">
-      <c r="A44" s="26">
+      <c r="A44" s="21">
         <v>41</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="22" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="39">
-      <c r="A45" s="26">
+      <c r="A45" s="21">
         <v>42</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="22" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="39">
-      <c r="A46" s="26">
+      <c r="A46" s="21">
         <v>43</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="22" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="26">
+      <c r="A47" s="21">
         <v>44</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="22" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="26">
+      <c r="A48" s="21">
         <v>45</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H48" s="35" t="s">
+      <c r="H48" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="26">
+      <c r="A49" s="21">
         <v>46</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="22" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="26">
+      <c r="A50" s="21">
         <v>47</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H50" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="26">
+      <c r="A51" s="21">
         <v>48</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H51" s="35" t="s">
+      <c r="H51" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5772,8 +7591,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801CB99E-C20E-4B72-A538-CD3521CF0E5D}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5797,29 +7619,29 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -5983,8 +7805,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C45BC8-0772-4600-ACF7-7D8220652400}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
@@ -5995,11 +7820,11 @@
   <cols>
     <col min="1" max="1" width="12.5" style="15" customWidth="1"/>
     <col min="2" max="2" width="9" style="15"/>
-    <col min="3" max="4" width="15.5" style="36" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="36" customWidth="1"/>
+    <col min="3" max="4" width="15.5" style="26" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="26" customWidth="1"/>
     <col min="6" max="6" width="15.25" style="15" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="15" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="36" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="26" customWidth="1"/>
     <col min="9" max="9" width="19.25" style="15" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="15" customWidth="1"/>
     <col min="11" max="16384" width="9" style="15"/>
@@ -6009,33 +7834,33 @@
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="12" t="s">
@@ -6044,11 +7869,11 @@
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
@@ -6072,18 +7897,18 @@
       <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="27" t="s">
         <v>78</v>
       </c>
       <c r="I4" s="17"/>
@@ -6094,18 +7919,18 @@
         <v>2</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="17" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="27" t="s">
         <v>110</v>
       </c>
       <c r="I5" s="17"/>
@@ -6116,16 +7941,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="17" t="s">
         <v>109</v>
       </c>
       <c r="G6" s="17"/>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="27" t="s">
         <v>171</v>
       </c>
       <c r="I6" s="17"/>
@@ -6136,16 +7961,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="17" t="s">
         <v>109</v>
       </c>
       <c r="G7" s="17"/>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="27" t="s">
         <v>172</v>
       </c>
       <c r="I7" s="17"/>
@@ -6156,16 +7981,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="27" t="s">
         <v>173</v>
       </c>
       <c r="I8" s="17"/>
@@ -6176,16 +8001,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="27" t="s">
         <v>174</v>
       </c>
       <c r="I9" s="17"/>
@@ -6196,16 +8021,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>159</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="27" t="s">
         <v>175</v>
       </c>
       <c r="I10" s="17"/>
@@ -6216,16 +8041,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="27" t="s">
         <v>176</v>
       </c>
       <c r="I11" s="17"/>
@@ -6236,16 +8061,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="17" t="s">
         <v>109</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="27" t="s">
         <v>177</v>
       </c>
       <c r="I12" s="17"/>
@@ -6256,16 +8081,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="27" t="s">
         <v>173</v>
       </c>
       <c r="I13" s="17"/>
@@ -6276,16 +8101,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="27" t="s">
         <v>174</v>
       </c>
       <c r="I14" s="17"/>
@@ -6296,16 +8121,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="s">
         <v>159</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="27" t="s">
         <v>175</v>
       </c>
       <c r="I15" s="17"/>
@@ -6316,16 +8141,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="27" t="s">
         <v>176</v>
       </c>
       <c r="I16" s="17"/>
@@ -6336,16 +8161,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="17"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="17" t="s">
         <v>109</v>
       </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="27" t="s">
         <v>178</v>
       </c>
       <c r="I17" s="17"/>
@@ -6356,16 +8181,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="27" t="s">
         <v>173</v>
       </c>
       <c r="I18" s="17"/>
@@ -6376,16 +8201,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="17"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
         <v>91</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="27" t="s">
         <v>174</v>
       </c>
       <c r="I19" s="17"/>
@@ -6396,16 +8221,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="17"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="s">
         <v>159</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="27" t="s">
         <v>175</v>
       </c>
       <c r="I20" s="17"/>
@@ -6416,16 +8241,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="17"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="27" t="s">
         <v>176</v>
       </c>
       <c r="I21" s="17"/>
@@ -6436,16 +8261,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="E22" s="37"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="17" t="s">
         <v>109</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="27" t="s">
         <v>179</v>
       </c>
       <c r="I22" s="17"/>
@@ -6456,16 +8281,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="27" t="s">
         <v>173</v>
       </c>
       <c r="I23" s="17"/>
@@ -6476,16 +8301,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="17"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27" t="s">
         <v>91</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="27" t="s">
         <v>174</v>
       </c>
       <c r="I24" s="17"/>
@@ -6496,16 +8321,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="17"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="s">
         <v>159</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="27" t="s">
         <v>175</v>
       </c>
       <c r="I25" s="17"/>
@@ -6516,16 +8341,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="17"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="27" t="s">
         <v>176</v>
       </c>
       <c r="I26" s="17"/>
@@ -6536,16 +8361,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="17"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="17" t="s">
         <v>109</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="27" t="s">
         <v>180</v>
       </c>
       <c r="I27" s="17"/>
@@ -6556,16 +8381,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="17"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="27" t="s">
         <v>173</v>
       </c>
       <c r="I28" s="17"/>
@@ -6576,16 +8401,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="17"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27" t="s">
         <v>91</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="27" t="s">
         <v>174</v>
       </c>
       <c r="I29" s="17"/>
@@ -6596,16 +8421,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="17"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27" t="s">
         <v>159</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="27" t="s">
         <v>175</v>
       </c>
       <c r="I30" s="17"/>
@@ -6616,16 +8441,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="17"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="27" t="s">
         <v>176</v>
       </c>
       <c r="I31" s="17"/>
@@ -6636,16 +8461,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="17"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="37"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="17" t="s">
         <v>109</v>
       </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="27" t="s">
         <v>181</v>
       </c>
       <c r="I32" s="17"/>
@@ -6656,16 +8481,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="17"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="27" t="s">
         <v>173</v>
       </c>
       <c r="I33" s="17"/>
@@ -6676,16 +8501,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="17"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27" t="s">
         <v>91</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="27" t="s">
         <v>174</v>
       </c>
       <c r="I34" s="17"/>
@@ -6696,16 +8521,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="17"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27" t="s">
         <v>159</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G35" s="17"/>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="27" t="s">
         <v>175</v>
       </c>
       <c r="I35" s="17"/>
@@ -6716,16 +8541,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="17"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G36" s="17"/>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="27" t="s">
         <v>176</v>
       </c>
       <c r="I36" s="17"/>
@@ -6736,14 +8561,14 @@
         <v>34</v>
       </c>
       <c r="B37" s="17"/>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="37" t="s">
+      <c r="H37" s="27" t="s">
         <v>182</v>
       </c>
       <c r="I37" s="17"/>
@@ -6754,16 +8579,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="17"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="37"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="17"/>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="27" t="s">
         <v>173</v>
       </c>
       <c r="I38" s="17"/>
@@ -6774,16 +8599,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="17"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37" t="s">
+      <c r="C39" s="27"/>
+      <c r="D39" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="E39" s="37"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G39" s="17"/>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="27" t="s">
         <v>183</v>
       </c>
       <c r="I39" s="17"/>
@@ -6794,16 +8619,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="17"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E40" s="37"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G40" s="17"/>
-      <c r="H40" s="37" t="s">
+      <c r="H40" s="27" t="s">
         <v>184</v>
       </c>
       <c r="I40" s="17"/>
@@ -6814,16 +8639,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="17"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="37"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="17"/>
-      <c r="H41" s="37" t="s">
+      <c r="H41" s="27" t="s">
         <v>185</v>
       </c>
       <c r="I41" s="17"/>
@@ -6847,8 +8672,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA8DF16-126E-4550-BFDF-901CBDA6B964}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
@@ -6873,31 +8701,31 @@
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="12" t="s">
@@ -7682,8 +9510,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233336A2-D329-424D-A73B-45F3CA83E63F}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7707,29 +9538,29 @@
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -7935,12 +9766,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60FA01A-2711-4D08-9775-6DACCB0285DB}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -7960,29 +9794,29 @@
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -8118,1051 +9952,1425 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7140714-2F66-49CF-A304-35DBD5E0B9C4}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="27.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="44.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A11" s="20">
+        <v>8</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" location="history_STD!A1" display="std_id" xr:uid="{76FB2D6C-43FD-4394-8DCD-A45962033574}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6602DFCB-383B-4EAC-8FF2-150946658226}">
-  <dimension ref="A1:L78"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80:H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9.9499999999999993" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="42"/>
-    <col min="2" max="2" width="13" style="42" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="42" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="42" customWidth="1"/>
-    <col min="7" max="7" width="9" style="42"/>
-    <col min="8" max="8" width="14.5" style="42" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="42" customWidth="1"/>
-    <col min="10" max="10" width="25.25" style="42" customWidth="1"/>
-    <col min="11" max="11" width="18" style="42" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="9" style="31"/>
+    <col min="2" max="2" width="13" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="31" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9" style="31"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="31" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="31" customWidth="1"/>
+    <col min="11" max="11" width="18" style="31" customWidth="1"/>
+    <col min="12" max="12" width="8.25" style="31" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="32" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="76" t="s">
         <v>258</v>
       </c>
-      <c r="G3" s="79"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="35" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="35" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
     </row>
     <row r="13" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="F13" s="49" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="F13" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="F14" s="51" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="F14" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="J14" s="43" t="s">
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="J14" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="F15" s="51" t="s">
+      <c r="C15" s="92"/>
+      <c r="D15" s="75"/>
+      <c r="F15" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="J15" s="44" t="s">
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="J15" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B16" s="55"/>
-      <c r="C16" s="52" t="s">
+      <c r="B16" s="89"/>
+      <c r="C16" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="F16" s="51" t="s">
+      <c r="D16" s="75"/>
+      <c r="F16" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="J16" s="46" t="s">
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="J16" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B17" s="56"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="46" t="s">
+      <c r="B17" s="90"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="J17" s="46" t="s">
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="J17" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="46" t="s">
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="J18" s="45" t="s">
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="J18" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="46" t="s">
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B20" s="56"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="46" t="s">
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B21" s="56"/>
-      <c r="C21" s="52" t="s">
+      <c r="B21" s="90"/>
+      <c r="C21" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="F21" s="51" t="s">
+      <c r="D21" s="75"/>
+      <c r="F21" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="J21" s="43" t="s">
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="J21" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B22" s="56"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="46" t="s">
+      <c r="B22" s="90"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="J22" s="44" t="s">
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="J22" s="33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="46" t="s">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="J23" s="46" t="s">
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="J23" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="46" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="J24" s="46" t="s">
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="J24" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B25" s="56"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="46" t="s">
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="J25" s="46" t="s">
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="J25" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B26" s="56"/>
-      <c r="C26" s="52" t="s">
+      <c r="B26" s="90"/>
+      <c r="C26" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="F26" s="51" t="s">
+      <c r="D26" s="75"/>
+      <c r="F26" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="J26" s="45" t="s">
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="J26" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B27" s="56"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="46" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="J27" s="45" t="s">
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="J27" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="46" t="s">
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="J28" s="45" t="s">
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="J28" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="46" t="s">
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
     </row>
     <row r="30" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B30" s="56"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="46" t="s">
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
     </row>
     <row r="31" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B31" s="56"/>
-      <c r="C31" s="52" t="s">
+      <c r="B31" s="90"/>
+      <c r="C31" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="F31" s="51" t="s">
+      <c r="D31" s="75"/>
+      <c r="F31" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="J31" s="43" t="s">
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="J31" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B32" s="56"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46" t="s">
+      <c r="B32" s="90"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="J32" s="44" t="s">
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="J32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L32" s="43" t="s">
+      <c r="L32" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B33" s="56"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46" t="s">
+      <c r="B33" s="90"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="61"/>
-      <c r="J33" s="46" t="s">
+      <c r="H33" s="99"/>
+      <c r="J33" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="L33" s="44" t="s">
+      <c r="L33" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B34" s="56"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46" t="s">
+      <c r="B34" s="90"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="59" t="s">
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J34" s="46" t="s">
+      <c r="J34" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="L34" s="46" t="s">
+      <c r="L34" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B35" s="56"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46" t="s">
+      <c r="B35" s="90"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="59" t="s">
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="J35" s="46" t="s">
+      <c r="J35" s="35" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B36" s="56"/>
-      <c r="C36" s="52" t="s">
+      <c r="B36" s="90"/>
+      <c r="C36" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="59" t="s">
+      <c r="D36" s="75"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B37" s="56"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46" t="s">
+      <c r="B37" s="90"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="45" t="s">
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B38" s="56"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46" t="s">
+      <c r="B38" s="90"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="45" t="s">
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B39" s="56"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46" t="s">
+      <c r="B39" s="90"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="45" t="s">
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B40" s="56"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46" t="s">
+      <c r="B40" s="90"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="59" t="s">
+      <c r="F40" s="97"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="43" t="s">
+      <c r="J40" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B41" s="56"/>
-      <c r="C41" s="52" t="s">
+      <c r="B41" s="90"/>
+      <c r="C41" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="60" t="s">
+      <c r="D41" s="75"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="H41" s="61"/>
-      <c r="J41" s="44" t="s">
+      <c r="H41" s="99"/>
+      <c r="J41" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B42" s="56"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46" t="s">
+      <c r="B42" s="90"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="59" t="s">
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="46" t="s">
+      <c r="J42" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B43" s="56"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46" t="s">
+      <c r="B43" s="90"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="59" t="s">
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J43" s="46" t="s">
+      <c r="J43" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B44" s="56"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46" t="s">
+      <c r="B44" s="90"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="59" t="s">
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="46" t="s">
+      <c r="J44" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B45" s="58"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46" t="s">
+      <c r="B45" s="91"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="59" t="s">
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="J45" s="45" t="s">
+      <c r="J45" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="59" t="s">
+      <c r="C46" s="92"/>
+      <c r="D46" s="75"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B47" s="55"/>
-      <c r="C47" s="46" t="s">
+      <c r="B47" s="89"/>
+      <c r="C47" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="45" t="s">
+      <c r="D47" s="35"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B48" s="56"/>
-      <c r="C48" s="46" t="s">
+      <c r="B48" s="90"/>
+      <c r="C48" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="45" t="s">
+      <c r="D48" s="35"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J48" s="43" t="s">
+      <c r="J48" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B49" s="56"/>
-      <c r="C49" s="46" t="s">
+      <c r="B49" s="90"/>
+      <c r="C49" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="45" t="s">
+      <c r="D49" s="35"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="44" t="s">
+      <c r="J49" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B50" s="58"/>
-      <c r="C50" s="46" t="s">
+      <c r="B50" s="91"/>
+      <c r="C50" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="65" t="s">
+      <c r="D50" s="35"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="44" t="s">
+      <c r="J50" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="F51" s="51" t="s">
+      <c r="F51" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="J51" s="46" t="s">
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="J51" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="67"/>
-      <c r="F52" s="51" t="s">
+      <c r="B52" s="81"/>
+      <c r="F52" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
     </row>
     <row r="53" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="68" t="s">
+      <c r="A53" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="69"/>
-      <c r="F53" s="51" t="s">
+      <c r="B53" s="79"/>
+      <c r="F53" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
     </row>
     <row r="54" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="F54" s="51" t="s">
+      <c r="B54" s="77"/>
+      <c r="F54" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="J54" s="43" t="s">
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="J54" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="F55" s="51" t="s">
+      <c r="B55" s="83"/>
+      <c r="F55" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="J55" s="44" t="s">
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="J55" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="72"/>
-      <c r="B56" s="46" t="s">
+      <c r="A56" s="84"/>
+      <c r="B56" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="73" t="s">
+      <c r="F56" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="J56" s="45" t="s">
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="J56" s="34" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="74"/>
-      <c r="B57" s="46" t="s">
+      <c r="A57" s="85"/>
+      <c r="B57" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="F57" s="73" t="s">
+      <c r="F57" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="J57" s="46" t="s">
+      <c r="G57" s="93"/>
+      <c r="H57" s="93"/>
+      <c r="J57" s="35" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="74"/>
-      <c r="B58" s="46" t="s">
+      <c r="A58" s="85"/>
+      <c r="B58" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="73" t="s">
+      <c r="F58" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="J58" s="46" t="s">
+      <c r="G58" s="93"/>
+      <c r="H58" s="93"/>
+      <c r="J58" s="35" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="74"/>
-      <c r="B59" s="46" t="s">
+      <c r="A59" s="85"/>
+      <c r="B59" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="73" t="s">
+      <c r="F59" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="J59" s="46" t="s">
+      <c r="G59" s="93"/>
+      <c r="H59" s="93"/>
+      <c r="J59" s="35" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A60" s="74"/>
-      <c r="B60" s="46" t="s">
+      <c r="A60" s="85"/>
+      <c r="B60" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="73" t="s">
+      <c r="F60" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="J60" s="46" t="s">
+      <c r="G60" s="93"/>
+      <c r="H60" s="93"/>
+      <c r="J60" s="35" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A61" s="74"/>
-      <c r="B61" s="46" t="s">
+      <c r="A61" s="85"/>
+      <c r="B61" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="52" t="s">
+      <c r="C61" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="54"/>
+      <c r="D61" s="75"/>
     </row>
     <row r="62" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="46" t="s">
+      <c r="A62" s="85"/>
+      <c r="B62" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="46" t="s">
+      <c r="C62" s="89"/>
+      <c r="D62" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A63" s="74"/>
-      <c r="B63" s="46" t="s">
+      <c r="A63" s="85"/>
+      <c r="B63" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="46" t="s">
+      <c r="C63" s="90"/>
+      <c r="D63" s="35" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A64" s="74"/>
-      <c r="B64" s="46" t="s">
+      <c r="A64" s="85"/>
+      <c r="B64" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="46" t="s">
+      <c r="C64" s="90"/>
+      <c r="D64" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="J64" s="75" t="s">
+      <c r="J64" s="40" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A65" s="74"/>
-      <c r="B65" s="46" t="s">
+      <c r="A65" s="85"/>
+      <c r="B65" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="56"/>
-      <c r="D65" s="46" t="s">
+      <c r="C65" s="90"/>
+      <c r="D65" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="J65" s="44" t="s">
+      <c r="J65" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A66" s="76"/>
-      <c r="B66" s="46" t="s">
+      <c r="A66" s="86"/>
+      <c r="B66" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="46" t="s">
+      <c r="C66" s="90"/>
+      <c r="D66" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="J66" s="45" t="s">
+      <c r="J66" s="34" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B67" s="46"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="46" t="s">
+      <c r="B67" s="35"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="J67" s="46" t="s">
+      <c r="J67" s="35" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A68" s="77"/>
-      <c r="B68" s="46" t="s">
+      <c r="A68" s="73"/>
+      <c r="B68" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="46" t="s">
+      <c r="C68" s="90"/>
+      <c r="D68" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="J68" s="46" t="s">
+      <c r="J68" s="35" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A69" s="77"/>
-      <c r="B69" s="46" t="s">
+      <c r="A69" s="73"/>
+      <c r="B69" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="46" t="s">
+      <c r="C69" s="90"/>
+      <c r="D69" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="J69" s="46" t="s">
+      <c r="H69" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="J69" s="35" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A70" s="77"/>
-      <c r="B70" s="46" t="s">
+      <c r="A70" s="73"/>
+      <c r="B70" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="46" t="s">
+      <c r="C70" s="90"/>
+      <c r="D70" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="J70" s="46" t="s">
+      <c r="H70" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="35" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A71" s="77"/>
-      <c r="B71" s="46" t="s">
+      <c r="A71" s="73"/>
+      <c r="B71" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="46" t="s">
+      <c r="C71" s="91"/>
+      <c r="D71" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="F71" s="54"/>
-      <c r="J71" s="46" t="s">
+      <c r="F71" s="75"/>
+      <c r="H71" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J71" s="35" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A72" s="77"/>
-      <c r="B72" s="46" t="s">
+      <c r="A72" s="73"/>
+      <c r="B72" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="46" t="s">
+      <c r="D72" s="75"/>
+      <c r="E72" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="J72" s="46" t="s">
+      <c r="H72" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="J72" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A73" s="77"/>
-      <c r="B73" s="46" t="s">
+      <c r="A73" s="73"/>
+      <c r="B73" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="77"/>
-      <c r="D73" s="46" t="s">
+      <c r="C73" s="73"/>
+      <c r="D73" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E73" s="77"/>
-      <c r="F73" s="46" t="s">
+      <c r="E73" s="73"/>
+      <c r="F73" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="J73" s="46" t="s">
+      <c r="H73" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J73" s="35" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A74" s="77"/>
-      <c r="B74" s="46" t="s">
+      <c r="A74" s="73"/>
+      <c r="B74" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="77"/>
-      <c r="D74" s="46" t="s">
+      <c r="C74" s="73"/>
+      <c r="D74" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E74" s="77"/>
-      <c r="F74" s="46" t="s">
+      <c r="E74" s="73"/>
+      <c r="F74" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="J74" s="46" t="s">
+      <c r="H74" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J74" s="35" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A75" s="77"/>
-      <c r="B75" s="46" t="s">
+      <c r="A75" s="73"/>
+      <c r="B75" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="C75" s="77"/>
-      <c r="D75" s="46" t="s">
+      <c r="C75" s="73"/>
+      <c r="D75" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E75" s="77"/>
-      <c r="F75" s="46" t="s">
+      <c r="E75" s="73"/>
+      <c r="F75" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="J75" s="46" t="s">
+      <c r="H75" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="J75" s="35" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A76" s="77"/>
-      <c r="B76" s="46" t="s">
+      <c r="A76" s="73"/>
+      <c r="B76" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="46" t="s">
+      <c r="C76" s="73"/>
+      <c r="D76" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="77"/>
-      <c r="F76" s="46" t="s">
+      <c r="E76" s="73"/>
+      <c r="F76" s="35" t="s">
         <v>202</v>
       </c>
+      <c r="H76" s="37" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="77" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A77" s="77"/>
-      <c r="B77" s="46" t="s">
+      <c r="A77" s="73"/>
+      <c r="B77" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C77" s="77"/>
-      <c r="D77" s="46" t="s">
+      <c r="C77" s="73"/>
+      <c r="D77" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="77"/>
-      <c r="F77" s="46" t="s">
+      <c r="E77" s="73"/>
+      <c r="F77" s="35" t="s">
         <v>203</v>
       </c>
+      <c r="H77" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="78" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A78" s="77"/>
-      <c r="B78" s="46" t="s">
+      <c r="A78" s="73"/>
+      <c r="B78" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C78" s="77"/>
-      <c r="D78" s="46" t="s">
+      <c r="C78" s="73"/>
+      <c r="D78" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="E78" s="78"/>
+      <c r="E78" s="41"/>
+    </row>
+    <row r="80" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="H80" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8" ht="9.9499999999999993" customHeight="1">
+      <c r="H81" s="113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8" ht="9.9499999999999993" customHeight="1">
+      <c r="H82" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8" ht="9.9499999999999993" customHeight="1">
+      <c r="H85" s="112" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8" ht="9.9499999999999993" customHeight="1">
+      <c r="H86" s="113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8" ht="9.9499999999999993" customHeight="1">
+      <c r="H87" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8" ht="9.9499999999999993" customHeight="1">
+      <c r="H88" s="38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8" ht="9.9499999999999993" customHeight="1">
+      <c r="H89" s="37" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F34:F41"/>
+    <mergeCell ref="G34:G40"/>
+    <mergeCell ref="F42:F50"/>
+    <mergeCell ref="G42:G50"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B16:B45"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:B50"/>
     <mergeCell ref="E73:E77"/>
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="F3:G5"/>
@@ -9179,59 +11387,649 @@
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B16:B45"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F42:F50"/>
-    <mergeCell ref="G42:G50"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F34:F41"/>
-    <mergeCell ref="G34:G40"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0" header="0.19685039370078741" footer="0"/>
   <pageSetup paperSize="3" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDE6C5F-BBCF-47C3-BD1A-6A7BEB059F9E}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A2:H64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="42"/>
+    <col min="2" max="2" width="31.375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="25.25" style="42" customWidth="1"/>
+    <col min="7" max="7" width="18" style="42" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="42" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="24.95" customHeight="1">
+      <c r="C2" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+    </row>
+    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="45"/>
+      <c r="F7" s="107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="45"/>
+      <c r="F8" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="48"/>
+    </row>
+    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="51"/>
+    </row>
+    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="43"/>
+      <c r="H20" s="107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="106" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="106"/>
+    </row>
+    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="45"/>
+    </row>
+    <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="C27" s="46"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="C28" s="46"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="E29" s="43"/>
+    </row>
+    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="19.5" customHeight="1">
+      <c r="B31" s="103" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="104"/>
+      <c r="C32" s="46"/>
+      <c r="E32" s="43"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="104"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="43"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="105"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="43"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="48"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="C36" s="46"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="45"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B38" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="116" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="49"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="46"/>
+      <c r="B41" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="46"/>
+      <c r="B42" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="E42" s="50"/>
+    </row>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="46"/>
+      <c r="B43" s="45"/>
+      <c r="E43" s="50"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="46"/>
+      <c r="B44" s="45"/>
+      <c r="E44" s="50"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="46"/>
+      <c r="B45" s="45"/>
+      <c r="E45" s="50"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="46"/>
+      <c r="B46" s="45"/>
+      <c r="E46" s="50"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="46"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="46"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="46"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="46"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="46"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="46"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="F53" s="45"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="46"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="F54" s="45"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="46"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="F55" s="45"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="46"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="F56" s="45"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="46"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="F57" s="45"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="46"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="45"/>
+      <c r="F58" s="45"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="46"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="45"/>
+      <c r="F59" s="45"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="46"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="45"/>
+      <c r="F60" s="45"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="46"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="45"/>
+      <c r="F61" s="45"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="46"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="45"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="46"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="45"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="46"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="D12:D22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B31:B34"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0" header="0.19685039370078741" footer="0"/>
+  <pageSetup paperSize="3" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B505A153-341C-4B83-BDE2-7ED59CBEB6AD}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="27.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="37.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9252,11 +12050,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
@@ -9425,6 +12223,671 @@
     <hyperlink ref="B14" location="income_expenses_STD!A1" display="income_expenses_STD" xr:uid="{CF3B3AF2-3B18-4897-A7FA-03F698C8C4B8}"/>
     <hyperlink ref="B15" location="activity_STD!A1" display="activity_STD" xr:uid="{C3CB339E-8334-4CE5-8092-D1624596F2BE}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5D9043-3188-41D2-8C28-17B02A93E9A3}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="27.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="37.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B4FEE2-36D3-4A0C-B370-12C27E87E7D2}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="15.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BD2AFB-A41C-48CA-B2D6-DFDAC021E1BA}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="15.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="31.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="110" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A46E4-CD9F-4ADC-82FC-22A41BD76305}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="15.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="29.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9454,25 +12917,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1">
       <c r="A3" s="12" t="s">
@@ -9771,25 +13234,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -9940,25 +13403,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -10057,25 +13520,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -10228,25 +13691,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -10360,25 +13823,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -10504,25 +13967,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">

--- a/Document/Database.xlsx
+++ b/Document/Database.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5730213008\Desktop\2-2560\Project-II\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasi\Desktop\Project-II\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="17" activeTab="22" xr2:uid="{47BC1BFC-CA47-4285-9565-C77701D0B0C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="9" xr2:uid="{47BC1BFC-CA47-4285-9565-C77701D0B0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="version" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="347">
   <si>
     <t>เวอร์ชั่น</t>
   </si>
@@ -975,6 +975,129 @@
   <si>
     <t>1 ยืนยัน,null ไม่ยืนยัน</t>
   </si>
+  <si>
+    <t>คณะ</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>FTE</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>FHT</t>
+  </si>
+  <si>
+    <t>CoC</t>
+  </si>
+  <si>
+    <t>CoE</t>
+  </si>
+  <si>
+    <t>วิทยาลัยการคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>ภาควิชาวิศวกรรมคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>คณะวิเทศศึกษา</t>
+  </si>
+  <si>
+    <t>คณะการบริการและการท่องเที่ยว</t>
+  </si>
+  <si>
+    <t>คณะเทคโนโลยีและสิ่งแวดล้อม</t>
+  </si>
+  <si>
+    <t>จีนศึกษา</t>
+  </si>
+  <si>
+    <t>วิศวกรรมซอฟแวร์</t>
+  </si>
+  <si>
+    <t>ธุรกิจอิเล็คทรอนิกส์</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีสารสนเทศ</t>
+  </si>
+  <si>
+    <t>วิศวกรรมคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>เกาหลีศึกษา</t>
+  </si>
+  <si>
+    <t>ไทยศึกษา</t>
+  </si>
+  <si>
+    <t>ยุโรปศึกษา</t>
+  </si>
+  <si>
+    <t>HPM</t>
+  </si>
+  <si>
+    <t>TRM</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>E-BIZ</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>การจัดการการบริการ</t>
+  </si>
+  <si>
+    <t>การจัดการการท่องเที่ยว</t>
+  </si>
+  <si>
+    <t>การจัดการนวัตกรรมการบริการ</t>
+  </si>
+  <si>
+    <t>IBC</t>
+  </si>
+  <si>
+    <t>CNS</t>
+  </si>
+  <si>
+    <t>ธุรกิจจีน</t>
+  </si>
+  <si>
+    <t>ธุรกิจเกาหลี</t>
+  </si>
+  <si>
+    <t>IBK</t>
+  </si>
+  <si>
+    <t>KRS</t>
+  </si>
+  <si>
+    <t>THS</t>
+  </si>
+  <si>
+    <t>EF:ES</t>
+  </si>
+  <si>
+    <t>ETM</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีและการจัดการสิ่งแวดล้อม</t>
+  </si>
+  <si>
+    <t>ภูมิสารสนเทศสิ่งแวดล้อม</t>
+  </si>
 </sst>
 </file>
 
@@ -984,7 +1107,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -993,7 +1116,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1023,7 +1146,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1031,21 +1154,21 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1053,7 +1176,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1061,7 +1184,7 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1069,14 +1192,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1084,7 +1207,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1092,7 +1215,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1100,14 +1223,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1115,7 +1238,7 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1123,7 +1246,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1403,6 +1526,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1517,13 +1667,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1543,33 +1693,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1618,8 +1741,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1685925" y="342900"/>
-          <a:ext cx="4295775" cy="6543675"/>
+          <a:off x="1476375" y="342900"/>
+          <a:ext cx="3752850" cy="6543675"/>
           <a:chOff x="1685925" y="2819400"/>
           <a:chExt cx="5172075" cy="13154025"/>
         </a:xfrm>
@@ -1761,8 +1884,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4362450" y="1562101"/>
-          <a:ext cx="1600200" cy="5448300"/>
+          <a:off x="3829050" y="1562101"/>
+          <a:ext cx="1400175" cy="5448300"/>
           <a:chOff x="4229100" y="5276850"/>
           <a:chExt cx="2628900" cy="10972800"/>
         </a:xfrm>
@@ -1904,8 +2027,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8743950" y="7362825"/>
-          <a:ext cx="771525" cy="628649"/>
+          <a:off x="7648575" y="7362825"/>
+          <a:ext cx="666750" cy="628649"/>
           <a:chOff x="9629775" y="16935450"/>
           <a:chExt cx="771525" cy="2238379"/>
         </a:xfrm>
@@ -2047,8 +2170,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8753475" y="2714625"/>
-          <a:ext cx="752475" cy="1866900"/>
+          <a:off x="7648575" y="2714625"/>
+          <a:ext cx="657225" cy="1866900"/>
           <a:chOff x="9629775" y="7543800"/>
           <a:chExt cx="752475" cy="3733800"/>
         </a:xfrm>
@@ -2190,8 +2313,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8753476" y="3962400"/>
-          <a:ext cx="723900" cy="742949"/>
+          <a:off x="7648576" y="3962400"/>
+          <a:ext cx="628650" cy="742949"/>
           <a:chOff x="9629775" y="7543800"/>
           <a:chExt cx="752475" cy="3733800"/>
         </a:xfrm>
@@ -2333,8 +2456,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipV="1">
-          <a:off x="8763000" y="4829174"/>
-          <a:ext cx="714375" cy="247651"/>
+          <a:off x="7658100" y="4829174"/>
+          <a:ext cx="619125" cy="247651"/>
           <a:chOff x="9629775" y="7543800"/>
           <a:chExt cx="600379" cy="3733800"/>
         </a:xfrm>
@@ -2476,8 +2599,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8763000" y="2714625"/>
-          <a:ext cx="752475" cy="3105150"/>
+          <a:off x="7658100" y="2714625"/>
+          <a:ext cx="657225" cy="3105150"/>
           <a:chOff x="9629775" y="7543800"/>
           <a:chExt cx="752475" cy="3733800"/>
         </a:xfrm>
@@ -2619,8 +2742,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8763000" y="3962401"/>
-          <a:ext cx="723900" cy="1981199"/>
+          <a:off x="7658100" y="3962401"/>
+          <a:ext cx="628650" cy="1981199"/>
           <a:chOff x="9629775" y="7543800"/>
           <a:chExt cx="752475" cy="3733800"/>
         </a:xfrm>
@@ -2762,8 +2885,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8763000" y="5076825"/>
-          <a:ext cx="714376" cy="952500"/>
+          <a:off x="7658100" y="5076825"/>
+          <a:ext cx="619126" cy="952500"/>
           <a:chOff x="9629775" y="7543800"/>
           <a:chExt cx="594060" cy="3733800"/>
         </a:xfrm>
@@ -2905,8 +3028,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9239266" y="1114425"/>
-          <a:ext cx="228604" cy="1114425"/>
+          <a:off x="8134366" y="1114425"/>
+          <a:ext cx="142879" cy="1114425"/>
           <a:chOff x="10033735" y="7543800"/>
           <a:chExt cx="190102" cy="3020813"/>
         </a:xfrm>
@@ -3048,8 +3171,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8753472" y="1857375"/>
-          <a:ext cx="742960" cy="619126"/>
+          <a:off x="7648572" y="1857375"/>
+          <a:ext cx="647710" cy="619126"/>
           <a:chOff x="9629775" y="8857197"/>
           <a:chExt cx="617830" cy="2420405"/>
         </a:xfrm>
@@ -3191,8 +3314,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8772527" y="1028700"/>
-          <a:ext cx="704850" cy="1323976"/>
+          <a:off x="7667627" y="1028700"/>
+          <a:ext cx="609600" cy="1323976"/>
           <a:chOff x="9629775" y="8857197"/>
           <a:chExt cx="1063242" cy="2420405"/>
         </a:xfrm>
@@ -3334,8 +3457,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="11401424" y="3448046"/>
-          <a:ext cx="1352548" cy="600079"/>
+          <a:off x="9963149" y="3448046"/>
+          <a:ext cx="1200148" cy="600079"/>
           <a:chOff x="6820533" y="7489295"/>
           <a:chExt cx="3561716" cy="3788308"/>
         </a:xfrm>
@@ -3477,8 +3600,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="11391901" y="3343276"/>
-          <a:ext cx="914397" cy="1731991"/>
+          <a:off x="9963151" y="3343276"/>
+          <a:ext cx="904872" cy="1731991"/>
           <a:chOff x="9784129" y="7539962"/>
           <a:chExt cx="617412" cy="3737638"/>
         </a:xfrm>
@@ -3620,8 +3743,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="11382373" y="3219450"/>
-          <a:ext cx="714375" cy="742950"/>
+          <a:off x="9963148" y="3219450"/>
+          <a:ext cx="695325" cy="742950"/>
           <a:chOff x="9784129" y="7539962"/>
           <a:chExt cx="617412" cy="3737638"/>
         </a:xfrm>
@@ -3763,8 +3886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11429999" y="4086225"/>
-          <a:ext cx="1346302" cy="342900"/>
+          <a:off x="9991724" y="4086225"/>
+          <a:ext cx="1174852" cy="342900"/>
           <a:chOff x="9362836" y="7539962"/>
           <a:chExt cx="1019413" cy="3737638"/>
         </a:xfrm>
@@ -3906,7 +4029,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="11401424" y="4562475"/>
+          <a:off x="9963149" y="4562475"/>
           <a:ext cx="914397" cy="514350"/>
           <a:chOff x="9784129" y="7539962"/>
           <a:chExt cx="617412" cy="3737638"/>
@@ -4049,8 +4172,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11420475" y="4086225"/>
-          <a:ext cx="1336777" cy="1485900"/>
+          <a:off x="9982200" y="4086225"/>
+          <a:ext cx="1184377" cy="1485900"/>
           <a:chOff x="9362836" y="7539962"/>
           <a:chExt cx="1019413" cy="3737638"/>
         </a:xfrm>
@@ -4192,8 +4315,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1619250" y="457200"/>
-          <a:ext cx="7867651" cy="7658015"/>
+          <a:off x="1466850" y="457200"/>
+          <a:ext cx="6819901" cy="7658015"/>
           <a:chOff x="1619250" y="457200"/>
           <a:chExt cx="7867651" cy="7658015"/>
         </a:xfrm>
@@ -4500,8 +4623,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1695452" y="6457952"/>
-          <a:ext cx="4276723" cy="714373"/>
+          <a:off x="1485902" y="6457952"/>
+          <a:ext cx="3743323" cy="714373"/>
           <a:chOff x="1695452" y="6457952"/>
           <a:chExt cx="4276723" cy="714373"/>
         </a:xfrm>
@@ -4608,8 +4731,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipV="1">
-          <a:off x="8763001" y="6743701"/>
-          <a:ext cx="752474" cy="485774"/>
+          <a:off x="7658101" y="6743701"/>
+          <a:ext cx="657224" cy="485774"/>
           <a:chOff x="9629775" y="16935450"/>
           <a:chExt cx="1523760" cy="2238375"/>
         </a:xfrm>
@@ -4857,8 +4980,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="8734423" y="9486898"/>
-          <a:ext cx="714375" cy="1123951"/>
+          <a:off x="7648573" y="9486898"/>
+          <a:ext cx="628650" cy="1123951"/>
           <a:chOff x="9784129" y="7539962"/>
           <a:chExt cx="617412" cy="3737638"/>
         </a:xfrm>
@@ -6676,10 +6799,10 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6751,20 +6874,20 @@
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="21" customWidth="1"/>
     <col min="2" max="2" width="9" style="22"/>
-    <col min="3" max="3" width="24.375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="22" customWidth="1"/>
-    <col min="5" max="7" width="18.25" style="22" customWidth="1"/>
-    <col min="8" max="8" width="31.625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="22" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="22" customWidth="1"/>
+    <col min="5" max="7" width="18.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="22" customWidth="1"/>
     <col min="11" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
@@ -6772,33 +6895,33 @@
       <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="23" t="s">
@@ -6807,11 +6930,11 @@
       <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="23" t="s">
         <v>11</v>
       </c>
@@ -6994,7 +7117,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="39">
+    <row r="15" spans="1:10" ht="42">
       <c r="A15" s="21">
         <v>12</v>
       </c>
@@ -7078,7 +7201,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="42">
       <c r="A21" s="21">
         <v>18</v>
       </c>
@@ -7404,7 +7527,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="39">
+    <row r="43" spans="1:16" ht="42">
       <c r="A43" s="21">
         <v>40</v>
       </c>
@@ -7418,7 +7541,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="39">
+    <row r="44" spans="1:16" ht="42">
       <c r="A44" s="21">
         <v>41</v>
       </c>
@@ -7432,7 +7555,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="39">
+    <row r="45" spans="1:16" ht="42">
       <c r="A45" s="21">
         <v>42</v>
       </c>
@@ -7446,7 +7569,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="39">
+    <row r="46" spans="1:16" ht="63">
       <c r="A46" s="21">
         <v>43</v>
       </c>
@@ -7460,7 +7583,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" ht="42">
       <c r="A47" s="21">
         <v>44</v>
       </c>
@@ -7490,17 +7613,17 @@
       <c r="F48" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H48" s="63" t="s">
+      <c r="H48" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="63"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="21">
@@ -7532,15 +7655,15 @@
       <c r="F50" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H50" s="63" t="s">
+      <c r="H50" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="21">
@@ -7555,15 +7678,15 @@
       <c r="F51" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H51" s="63" t="s">
+      <c r="H51" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7602,16 +7725,16 @@
       <selection activeCell="C4" sqref="C4:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="15.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="37.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -7619,29 +7742,29 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -7816,17 +7939,17 @@
       <selection activeCell="C4" sqref="C4:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="9" style="15"/>
-    <col min="3" max="4" width="15.5" style="26" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="15" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="15" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="26" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="15" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="15" customWidth="1"/>
     <col min="11" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
@@ -7834,33 +7957,33 @@
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="12" t="s">
@@ -7869,11 +7992,11 @@
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
@@ -8683,17 +8806,17 @@
       <selection activeCell="C4" sqref="C4:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
     <col min="3" max="3" width="20" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="16" customWidth="1"/>
     <col min="7" max="7" width="62" style="16" customWidth="1"/>
-    <col min="8" max="8" width="32.75" style="16" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="16" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="16" customWidth="1"/>
     <col min="10" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -8701,31 +8824,31 @@
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="12" t="s">
@@ -9521,16 +9644,16 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="20.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="34.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -9538,29 +9661,29 @@
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -9777,16 +9900,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="27.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="37.75" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -9794,29 +9917,29 @@
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -9963,16 +10086,16 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="20" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="27.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -9980,29 +10103,29 @@
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -10218,20 +10341,20 @@
       <selection activeCell="H80" sqref="H80:H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="9.9499999999999993" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.9499999999999993" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="31"/>
     <col min="2" max="2" width="13" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="31" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="31" customWidth="1"/>
     <col min="7" max="7" width="9" style="31"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="31" customWidth="1"/>
-    <col min="10" max="10" width="25.25" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="31" customWidth="1"/>
     <col min="11" max="11" width="18" style="31" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="31" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="31" customWidth="1"/>
     <col min="13" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
@@ -10257,24 +10380,24 @@
       <c r="B3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="2:12" ht="9.9499999999999993" customHeight="1">
       <c r="B4" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="2:12" ht="9.9499999999999993" customHeight="1">
       <c r="B5" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" spans="2:12" ht="9.9499999999999993" customHeight="1">
       <c r="B6" s="35" t="s">
@@ -10316,293 +10439,293 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
     </row>
     <row r="13" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="F13" s="88" t="s">
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="F13" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="F14" s="95" t="s">
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="F14" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
       <c r="J14" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="75"/>
-      <c r="F15" s="95" t="s">
+      <c r="C15" s="103"/>
+      <c r="D15" s="86"/>
+      <c r="F15" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
       <c r="J15" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B16" s="89"/>
-      <c r="C16" s="74" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="F16" s="95" t="s">
+      <c r="D16" s="86"/>
+      <c r="F16" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
       <c r="J16" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B17" s="90"/>
-      <c r="C17" s="89"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
       <c r="J17" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="95" t="s">
+      <c r="F18" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
       <c r="J18" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="101" t="s">
+      <c r="F19" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
     </row>
     <row r="20" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="101" t="s">
+      <c r="F20" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
     </row>
     <row r="21" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B21" s="90"/>
-      <c r="C21" s="74" t="s">
+      <c r="B21" s="101"/>
+      <c r="C21" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="F21" s="95" t="s">
+      <c r="D21" s="86"/>
+      <c r="F21" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
       <c r="J21" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B22" s="90"/>
-      <c r="C22" s="89"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="95" t="s">
+      <c r="F22" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
       <c r="J22" s="33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="95" t="s">
+      <c r="F23" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
       <c r="J23" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="95" t="s">
+      <c r="F24" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
       <c r="J24" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="95" t="s">
+      <c r="F25" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
       <c r="J25" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B26" s="90"/>
-      <c r="C26" s="74" t="s">
+      <c r="B26" s="101"/>
+      <c r="C26" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="F26" s="95" t="s">
+      <c r="D26" s="86"/>
+      <c r="F26" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
       <c r="J26" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B27" s="90"/>
-      <c r="C27" s="89"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="95" t="s">
+      <c r="F27" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
       <c r="J27" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="95" t="s">
+      <c r="F28" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
       <c r="J28" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="95" t="s">
+      <c r="F29" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
     </row>
     <row r="30" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
       <c r="D30" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="95" t="s">
+      <c r="F30" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
     </row>
     <row r="31" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B31" s="90"/>
-      <c r="C31" s="74" t="s">
+      <c r="B31" s="101"/>
+      <c r="C31" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="F31" s="95" t="s">
+      <c r="D31" s="86"/>
+      <c r="F31" s="106" t="s">
         <v>244</v>
       </c>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
       <c r="J31" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B32" s="90"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="95" t="s">
+      <c r="F32" s="106" t="s">
         <v>246</v>
       </c>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
       <c r="J32" s="33" t="s">
         <v>61</v>
       </c>
@@ -10611,7 +10734,7 @@
       </c>
     </row>
     <row r="33" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B33" s="90"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35" t="s">
         <v>91</v>
@@ -10619,10 +10742,10 @@
       <c r="F33" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="98" t="s">
+      <c r="G33" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="99"/>
+      <c r="H33" s="111"/>
       <c r="J33" s="35" t="s">
         <v>62</v>
       </c>
@@ -10631,13 +10754,13 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B34" s="90"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
       <c r="H34" s="38" t="s">
         <v>95</v>
       </c>
@@ -10649,13 +10772,13 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B35" s="90"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
       <c r="H35" s="38" t="s">
         <v>98</v>
       </c>
@@ -10664,13 +10787,13 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B36" s="90"/>
-      <c r="C36" s="74" t="s">
+      <c r="B36" s="101"/>
+      <c r="C36" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
+      <c r="D36" s="86"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
       <c r="H36" s="38" t="s">
         <v>99</v>
       </c>
@@ -10679,13 +10802,13 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B37" s="90"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
       <c r="H37" s="34" t="s">
         <v>65</v>
       </c>
@@ -10694,37 +10817,37 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B38" s="90"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
       <c r="H38" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B39" s="90"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
       <c r="H39" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B40" s="90"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="97"/>
-      <c r="G40" s="100"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="109"/>
       <c r="H40" s="38" t="s">
         <v>22</v>
       </c>
@@ -10733,28 +10856,28 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B41" s="90"/>
-      <c r="C41" s="74" t="s">
+      <c r="B41" s="101"/>
+      <c r="C41" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="75"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="98" t="s">
+      <c r="D41" s="86"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="H41" s="99"/>
+      <c r="H41" s="111"/>
       <c r="J41" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B42" s="90"/>
+      <c r="B42" s="101"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
       <c r="H42" s="38" t="s">
         <v>133</v>
       </c>
@@ -10763,13 +10886,13 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B43" s="90"/>
+      <c r="B43" s="101"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
       <c r="H43" s="38" t="s">
         <v>134</v>
       </c>
@@ -10778,13 +10901,13 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B44" s="90"/>
+      <c r="B44" s="101"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
       <c r="H44" s="38" t="s">
         <v>95</v>
       </c>
@@ -10793,13 +10916,13 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B45" s="91"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
       <c r="H45" s="38" t="s">
         <v>98</v>
       </c>
@@ -10808,37 +10931,37 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="75"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="86"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
       <c r="H46" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B47" s="89"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="35" t="s">
         <v>85</v>
       </c>
       <c r="D47" s="35"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
       <c r="H47" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B48" s="90"/>
+      <c r="B48" s="101"/>
       <c r="C48" s="35" t="s">
         <v>168</v>
       </c>
       <c r="D48" s="35"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
       <c r="H48" s="34" t="s">
         <v>61</v>
       </c>
@@ -10847,13 +10970,13 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B49" s="90"/>
+      <c r="B49" s="101"/>
       <c r="C49" s="35" t="s">
         <v>169</v>
       </c>
       <c r="D49" s="35"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
       <c r="H49" s="34" t="s">
         <v>54</v>
       </c>
@@ -10862,13 +10985,13 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B50" s="91"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="35" t="s">
         <v>170</v>
       </c>
       <c r="D50" s="35"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
       <c r="H50" s="39" t="s">
         <v>22</v>
       </c>
@@ -10877,171 +11000,171 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="F51" s="95" t="s">
+      <c r="F51" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
       <c r="J51" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="80" t="s">
+      <c r="A52" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="F52" s="95" t="s">
+      <c r="B52" s="92"/>
+      <c r="F52" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
     </row>
     <row r="53" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="F53" s="95" t="s">
+      <c r="B53" s="90"/>
+      <c r="F53" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
     </row>
     <row r="54" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="77" t="s">
+      <c r="A54" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="77"/>
-      <c r="F54" s="95" t="s">
+      <c r="B54" s="88"/>
+      <c r="F54" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
       <c r="J54" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="B55" s="83"/>
-      <c r="F55" s="95" t="s">
+      <c r="B55" s="94"/>
+      <c r="F55" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
       <c r="J55" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="84"/>
+      <c r="A56" s="95"/>
       <c r="B56" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="93" t="s">
+      <c r="F56" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="G56" s="93"/>
-      <c r="H56" s="93"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
       <c r="J56" s="34" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="85"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="F57" s="93" t="s">
+      <c r="F57" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="93"/>
-      <c r="H57" s="93"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
       <c r="J57" s="35" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="85"/>
+      <c r="A58" s="96"/>
       <c r="B58" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="93" t="s">
+      <c r="F58" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
       <c r="J58" s="35" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="85"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="93" t="s">
+      <c r="F59" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="G59" s="93"/>
-      <c r="H59" s="93"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
       <c r="J59" s="35" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A60" s="85"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="93" t="s">
+      <c r="F60" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="G60" s="93"/>
-      <c r="H60" s="93"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
       <c r="J60" s="35" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A61" s="85"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="74" t="s">
+      <c r="C61" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="75"/>
+      <c r="D61" s="86"/>
     </row>
     <row r="62" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A62" s="85"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="89"/>
+      <c r="C62" s="100"/>
       <c r="D62" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A63" s="85"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="C63" s="90"/>
+      <c r="C63" s="101"/>
       <c r="D63" s="35" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A64" s="85"/>
+      <c r="A64" s="96"/>
       <c r="B64" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="90"/>
+      <c r="C64" s="101"/>
       <c r="D64" s="35" t="s">
         <v>146</v>
       </c>
@@ -11050,11 +11173,11 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A65" s="85"/>
+      <c r="A65" s="96"/>
       <c r="B65" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="90"/>
+      <c r="C65" s="101"/>
       <c r="D65" s="35" t="s">
         <v>147</v>
       </c>
@@ -11063,11 +11186,11 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A66" s="86"/>
+      <c r="A66" s="97"/>
       <c r="B66" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="90"/>
+      <c r="C66" s="101"/>
       <c r="D66" s="35" t="s">
         <v>148</v>
       </c>
@@ -11080,7 +11203,7 @@
         <v>193</v>
       </c>
       <c r="B67" s="35"/>
-      <c r="C67" s="90"/>
+      <c r="C67" s="101"/>
       <c r="D67" s="35" t="s">
         <v>86</v>
       </c>
@@ -11089,11 +11212,11 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A68" s="73"/>
+      <c r="A68" s="84"/>
       <c r="B68" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="90"/>
+      <c r="C68" s="101"/>
       <c r="D68" s="35" t="s">
         <v>189</v>
       </c>
@@ -11102,11 +11225,11 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A69" s="73"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="90"/>
+      <c r="C69" s="101"/>
       <c r="D69" s="35" t="s">
         <v>190</v>
       </c>
@@ -11118,15 +11241,15 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A70" s="73"/>
+      <c r="A70" s="84"/>
       <c r="B70" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="90"/>
+      <c r="C70" s="101"/>
       <c r="D70" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="H70" s="113" t="s">
+      <c r="H70" s="66" t="s">
         <v>29</v>
       </c>
       <c r="J70" s="35" t="s">
@@ -11134,18 +11257,18 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A71" s="73"/>
+      <c r="A71" s="84"/>
       <c r="B71" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="91"/>
+      <c r="C71" s="102"/>
       <c r="D71" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E71" s="74" t="s">
+      <c r="E71" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="F71" s="75"/>
+      <c r="F71" s="86"/>
       <c r="H71" s="37" t="s">
         <v>79</v>
       </c>
@@ -11154,14 +11277,14 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A72" s="73"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="74" t="s">
+      <c r="C72" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="D72" s="75"/>
+      <c r="D72" s="86"/>
       <c r="E72" s="35" t="s">
         <v>198</v>
       </c>
@@ -11176,15 +11299,15 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A73" s="73"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="73"/>
+      <c r="C73" s="84"/>
       <c r="D73" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E73" s="73"/>
+      <c r="E73" s="84"/>
       <c r="F73" s="35" t="s">
         <v>144</v>
       </c>
@@ -11196,15 +11319,15 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A74" s="73"/>
+      <c r="A74" s="84"/>
       <c r="B74" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="73"/>
+      <c r="C74" s="84"/>
       <c r="D74" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E74" s="73"/>
+      <c r="E74" s="84"/>
       <c r="F74" s="35" t="s">
         <v>200</v>
       </c>
@@ -11216,15 +11339,15 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A75" s="73"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="C75" s="73"/>
+      <c r="C75" s="84"/>
       <c r="D75" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E75" s="73"/>
+      <c r="E75" s="84"/>
       <c r="F75" s="35" t="s">
         <v>201</v>
       </c>
@@ -11236,15 +11359,15 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A76" s="73"/>
+      <c r="A76" s="84"/>
       <c r="B76" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="73"/>
+      <c r="C76" s="84"/>
       <c r="D76" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="73"/>
+      <c r="E76" s="84"/>
       <c r="F76" s="35" t="s">
         <v>202</v>
       </c>
@@ -11253,15 +11376,15 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A77" s="73"/>
+      <c r="A77" s="84"/>
       <c r="B77" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C77" s="73"/>
+      <c r="C77" s="84"/>
       <c r="D77" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="73"/>
+      <c r="E77" s="84"/>
       <c r="F77" s="35" t="s">
         <v>203</v>
       </c>
@@ -11270,11 +11393,11 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A78" s="73"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C78" s="73"/>
+      <c r="C78" s="84"/>
       <c r="D78" s="35" t="s">
         <v>196</v>
       </c>
@@ -11286,7 +11409,7 @@
       </c>
     </row>
     <row r="81" spans="8:8" ht="9.9499999999999993" customHeight="1">
-      <c r="H81" s="113" t="s">
+      <c r="H81" s="66" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11296,12 +11419,12 @@
       </c>
     </row>
     <row r="85" spans="8:8" ht="9.9499999999999993" customHeight="1">
-      <c r="H85" s="112" t="s">
+      <c r="H85" s="65" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="86" spans="8:8" ht="9.9499999999999993" customHeight="1">
-      <c r="H86" s="113" t="s">
+      <c r="H86" s="66" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11405,26 +11528,26 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="42"/>
-    <col min="2" max="2" width="31.375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="42" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="42" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="42" customWidth="1"/>
     <col min="7" max="7" width="18" style="42" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="42" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="42" customWidth="1"/>
     <col min="9" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="24.95" customHeight="1">
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="43"/>
@@ -11436,7 +11559,7 @@
       <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="60" t="s">
         <v>101</v>
       </c>
       <c r="D4" s="43"/>
@@ -11458,7 +11581,7 @@
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="45"/>
-      <c r="F7" s="107" t="s">
+      <c r="F7" s="60" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11483,7 +11606,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="48"/>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11503,7 +11626,7 @@
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="114" t="s">
         <v>259</v>
       </c>
       <c r="E12" s="51"/>
@@ -11514,7 +11637,7 @@
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="104"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -11522,9 +11645,9 @@
         <v>26</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="104"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="43"/>
-      <c r="F14" s="107" t="s">
+      <c r="F14" s="60" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11533,7 +11656,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="104"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="43"/>
       <c r="F15" s="29" t="s">
         <v>65</v>
@@ -11544,7 +11667,7 @@
         <v>79</v>
       </c>
       <c r="C16" s="46"/>
-      <c r="D16" s="104"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="43"/>
       <c r="F16" s="53" t="s">
         <v>61</v>
@@ -11553,7 +11676,7 @@
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="104"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="43"/>
       <c r="F17" s="53" t="s">
         <v>54</v>
@@ -11562,18 +11685,18 @@
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="104"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="43"/>
       <c r="F18" s="53" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="46"/>
-      <c r="D19" s="104"/>
+      <c r="D19" s="115"/>
       <c r="E19" s="43"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -11581,9 +11704,9 @@
         <v>29</v>
       </c>
       <c r="C20" s="46"/>
-      <c r="D20" s="104"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="43"/>
-      <c r="H20" s="107" t="s">
+      <c r="H20" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11592,9 +11715,9 @@
         <v>79</v>
       </c>
       <c r="C21" s="46"/>
-      <c r="D21" s="104"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="43"/>
-      <c r="F21" s="107" t="s">
+      <c r="F21" s="60" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="29" t="s">
@@ -11604,7 +11727,7 @@
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="45"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="105"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="43"/>
       <c r="F22" s="29" t="s">
         <v>61</v>
@@ -11618,18 +11741,18 @@
       <c r="C23" s="46"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
-      <c r="F23" s="106" t="s">
+      <c r="F23" s="117" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="61" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
-      <c r="F24" s="106"/>
+      <c r="F24" s="117"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="29" t="s">
@@ -11646,7 +11769,7 @@
       </c>
       <c r="C26" s="46"/>
       <c r="E26" s="43"/>
-      <c r="F26" s="107" t="s">
+      <c r="F26" s="60" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11667,24 +11790,24 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="109" t="s">
+      <c r="B29" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C29" s="46"/>
       <c r="E29" s="43"/>
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="64" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="46"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="107" t="s">
+      <c r="F30" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="114" t="s">
         <v>276</v>
       </c>
       <c r="C31" s="46"/>
@@ -11694,20 +11817,20 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="104"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="46"/>
       <c r="E32" s="43"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="104"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="46"/>
-      <c r="D33" s="114"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="105"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="46"/>
-      <c r="D34" s="114"/>
+      <c r="D34" s="67"/>
       <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -11732,7 +11855,7 @@
       <c r="F37" s="45"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="68" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="43"/>
@@ -11740,7 +11863,7 @@
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="69" t="s">
         <v>274</v>
       </c>
       <c r="C39" s="43"/>
@@ -11755,7 +11878,7 @@
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="46"/>
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="60" t="s">
         <v>148</v>
       </c>
       <c r="C41" s="43"/>
@@ -11764,7 +11887,7 @@
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="46"/>
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="70" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="43"/>
@@ -11920,16 +12043,16 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="20" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="27.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="37.75" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -11937,29 +12060,29 @@
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -12041,20 +12164,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="29.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
@@ -12238,16 +12361,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="20" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="27.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="37.75" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -12255,29 +12378,29 @@
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="80" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -12399,16 +12522,16 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="15.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -12416,29 +12539,29 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -12520,16 +12643,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="15.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="31.625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -12537,29 +12660,29 @@
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -12619,7 +12742,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="63" t="s">
         <v>288</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -12630,7 +12753,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="63" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -12644,7 +12767,7 @@
       <c r="B8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="63" t="s">
         <v>289</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -12661,7 +12784,7 @@
       <c r="B9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="63" t="s">
         <v>290</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -12690,20 +12813,20 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="20" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="15.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="29.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -12711,29 +12834,29 @@
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -12788,7 +12911,7 @@
       <c r="B5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="63" t="s">
         <v>289</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -12808,7 +12931,7 @@
       <c r="B6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="63" t="s">
         <v>290</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -12894,50 +13017,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC387508-C2D7-414E-B4F9-EDE43271E5C6}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="I9" sqref="I9:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="11" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="19.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="16" customWidth="1"/>
     <col min="4" max="4" width="19" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="16" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="16"/>
+    <col min="5" max="5" width="16.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="16" customWidth="1"/>
+    <col min="9" max="10" width="9" style="16"/>
+    <col min="11" max="11" width="30.7109375" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="1:8" s="14" customFormat="1">
+      <c r="B2" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -12963,7 +13092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -12985,7 +13114,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -12994,7 +13123,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>33</v>
@@ -13007,7 +13136,7 @@
       </c>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -13029,7 +13158,7 @@
       </c>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -13039,7 +13168,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -13049,7 +13178,7 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -13058,8 +13187,17 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="16">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -13068,8 +13206,17 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="16">
+        <v>2</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -13078,8 +13225,17 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="16">
+        <v>3</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -13088,8 +13244,17 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="16">
+        <v>4</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -13098,8 +13263,17 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="16">
+        <v>5</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -13109,7 +13283,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -13119,7 +13293,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -13211,50 +13385,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22411A55-7717-4604-B0E5-B4C5C0A027C8}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="15.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="28.375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -13280,7 +13454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -13300,7 +13474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -13320,7 +13494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -13340,7 +13514,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -13364,6 +13538,293 @@
       </c>
       <c r="H7" s="16" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="J10" s="16">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16">
+        <v>2</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" s="16">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16">
+        <v>3</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="D13" s="16">
+        <v>3</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="J13" s="16">
+        <v>4</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14" s="16">
+        <v>4</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="G14" s="16">
+        <v>2</v>
+      </c>
+      <c r="J14" s="16">
+        <v>5</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="D15" s="16">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="G15" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="D16" s="16">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="16">
+        <v>7</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G17" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="16">
+        <v>8</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="G18" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="16">
+        <v>9</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G19" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="16">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="G20" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="16">
+        <v>11</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G21" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="16">
+        <v>12</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="16">
+        <v>13</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G23" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="16">
+        <v>14</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="16">
+        <v>15</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="G25" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="16">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -13386,16 +13847,16 @@
       <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="15.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -13403,25 +13864,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -13503,16 +13964,16 @@
       <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="25.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -13520,25 +13981,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -13674,16 +14135,16 @@
       <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
     <col min="3" max="3" width="25" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -13691,25 +14152,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -13806,16 +14267,16 @@
       <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="24.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -13823,25 +14284,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -13950,16 +14411,16 @@
       <selection activeCell="C4" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="15.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -13967,25 +14428,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">

--- a/Document/Database.xlsx
+++ b/Document/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="9" xr2:uid="{47BC1BFC-CA47-4285-9565-C77701D0B0C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="8" activeTab="13" xr2:uid="{47BC1BFC-CA47-4285-9565-C77701D0B0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="version" sheetId="1" r:id="rId1"/>
@@ -18,23 +18,28 @@
     <sheet name="major" sheetId="4" r:id="rId4"/>
     <sheet name="geo" sheetId="5" r:id="rId5"/>
     <sheet name="province" sheetId="6" r:id="rId6"/>
-    <sheet name="amphur" sheetId="7" r:id="rId7"/>
-    <sheet name="district" sheetId="8" r:id="rId8"/>
+    <sheet name="district" sheetId="7" r:id="rId7"/>
+    <sheet name="subdistrict" sheetId="8" r:id="rId8"/>
     <sheet name="zipcode" sheetId="9" r:id="rId9"/>
-    <sheet name="history_STD" sheetId="11" r:id="rId10"/>
-    <sheet name="Brethren" sheetId="16" r:id="rId11"/>
-    <sheet name="history_Edu_STD" sheetId="12" r:id="rId12"/>
-    <sheet name="family_STD" sheetId="13" r:id="rId13"/>
-    <sheet name="income_expenses_STD" sheetId="14" r:id="rId14"/>
-    <sheet name="activity_STD" sheetId="15" r:id="rId15"/>
-    <sheet name="work_schedule" sheetId="19" r:id="rId16"/>
-    <sheet name="ER_Student" sheetId="17" r:id="rId17"/>
-    <sheet name="ER_Student (2)" sheetId="18" r:id="rId18"/>
-    <sheet name="work_area" sheetId="20" r:id="rId19"/>
-    <sheet name="authorities" sheetId="24" r:id="rId20"/>
-    <sheet name="type_fund" sheetId="10" r:id="rId21"/>
-    <sheet name="uploadefile" sheetId="26" r:id="rId22"/>
-    <sheet name="add_activity" sheetId="27" r:id="rId23"/>
+    <sheet name="hometown" sheetId="29" r:id="rId10"/>
+    <sheet name="current_address" sheetId="28" r:id="rId11"/>
+    <sheet name="history_STD" sheetId="11" r:id="rId12"/>
+    <sheet name="about_brethren" sheetId="30" r:id="rId13"/>
+    <sheet name="Brethren" sheetId="16" r:id="rId14"/>
+    <sheet name="history_Edu_STD" sheetId="12" r:id="rId15"/>
+    <sheet name="patron" sheetId="33" r:id="rId16"/>
+    <sheet name="mother" sheetId="32" r:id="rId17"/>
+    <sheet name="father" sheetId="13" r:id="rId18"/>
+    <sheet name="income_expenses_STD" sheetId="14" r:id="rId19"/>
+    <sheet name="activity_STD" sheetId="15" r:id="rId20"/>
+    <sheet name="work_schedule" sheetId="19" r:id="rId21"/>
+    <sheet name="ER_Student" sheetId="17" r:id="rId22"/>
+    <sheet name="ER_Student (2)" sheetId="18" r:id="rId23"/>
+    <sheet name="work_area" sheetId="20" r:id="rId24"/>
+    <sheet name="authorities" sheetId="24" r:id="rId25"/>
+    <sheet name="type_fund" sheetId="10" r:id="rId26"/>
+    <sheet name="uploadefile" sheetId="26" r:id="rId27"/>
+    <sheet name="add_activity" sheetId="27" r:id="rId28"/>
   </sheets>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="364">
   <si>
     <t>เวอร์ชั่น</t>
   </si>
@@ -369,9 +374,6 @@
     <t>numberofson_study</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -421,9 +423,6 @@
   </si>
   <si>
     <t>ศาสนา</t>
-  </si>
-  <si>
-    <t>ที่อยู่</t>
   </si>
   <si>
     <t>ภูมิลำเนาเดิม</t>
@@ -1098,12 +1097,69 @@
   <si>
     <t>ภูมิสารสนเทศสิ่งแวดล้อม</t>
   </si>
+  <si>
+    <t>nvarchar(max)</t>
+  </si>
+  <si>
+    <t>subdistrict_id</t>
+  </si>
+  <si>
+    <t>hometown_id</t>
+  </si>
+  <si>
+    <t>advisor_email</t>
+  </si>
+  <si>
+    <t>emailอาจารย์ที่ปรึกษา</t>
+  </si>
+  <si>
+    <t>current_address_id</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>ข้อมูลส่วนตัวญาติพี่น้อง</t>
+  </si>
+  <si>
+    <t>about_brethren_id</t>
+  </si>
+  <si>
+    <t>ข้อมูลเกี่ยวกับจำนวนญาติพี่น้อง</t>
+  </si>
+  <si>
+    <t>จำนวนญาติพี่น้อง</t>
+  </si>
+  <si>
+    <t>ประวัติแม่</t>
+  </si>
+  <si>
+    <t>parent_outlaw_fullname</t>
+  </si>
+  <si>
+    <t>parent_outlaw_age</t>
+  </si>
+  <si>
+    <t>parent_outlaw_job</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>parent_outlaw_work_area</t>
+  </si>
+  <si>
+    <t>parent_outlaw_phone</t>
+  </si>
+  <si>
+    <t>parent_outlaw_totalsalary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1250,6 +1306,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1377,7 +1439,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1553,6 +1615,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1562,23 +1660,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6868,90 +6957,605 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF07A72-9F30-4CCD-B634-089A3CE8C9FE}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="9" style="72"/>
+    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="24" style="72" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="72" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="72" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="72" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="72" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="72"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="81" customFormat="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="80"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:8" s="81" customFormat="1">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="80"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="72">
+        <v>22</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="72">
+        <v>23</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="72">
+        <v>24</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="72">
+        <v>25</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="72">
+        <v>26</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="72">
+        <v>27</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="72">
+        <v>28</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C9" location="district!A1" display="district_id" xr:uid="{F03F567F-A118-4E41-902F-6F437634D153}"/>
+    <hyperlink ref="C10" location="amphur!A1" display="amphur_id" xr:uid="{D45C10AC-F7D5-4D6B-A7E5-18F3F12EEF5D}"/>
+    <hyperlink ref="C11" location="province!A1" display="province_id" xr:uid="{FC1C292F-F65D-40C6-8BC5-AF1F92DA7F99}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4DA7CD-71DC-4767-ACA8-1ABF8FFA781A}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A2:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="80"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="80"/>
+      <c r="B6" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="80"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="72">
+        <v>30</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="72">
+        <v>31</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="72">
+        <v>32</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="72">
+        <v>33</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="72">
+        <v>34</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="72">
+        <v>35</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="72">
+        <v>36</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="72">
+        <v>37</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="72">
+        <v>38</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C12" location="district!A1" display="district_id" xr:uid="{06FBA91C-D333-4A57-9189-FF37849D9283}"/>
+    <hyperlink ref="C13" location="amphur!A1" display="amphur_id" xr:uid="{FADA1947-522E-4649-BE5B-B5589C448D75}"/>
+    <hyperlink ref="C14" location="province!A1" display="province_id" xr:uid="{BEC13304-399C-4027-9C4B-D3F3CA7B7301}"/>
+    <hyperlink ref="C12" location="province!A1" display="province_id" xr:uid="{89B3B702-C992-49B1-AC40-5E4B7A4AB97C}"/>
+    <hyperlink ref="C11" location="amphur!A1" display="amphur_id" xr:uid="{A96C595A-EE22-4E7E-A3E1-F03CB44CC739}"/>
+    <hyperlink ref="C10" location="district!A1" display="district_id" xr:uid="{1DA37499-4AA9-4343-A839-42F1CB36224F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E718DA-DFD9-4C42-84B6-36FD0D0E2E59}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="21" customWidth="1"/>
     <col min="2" max="2" width="9" style="22"/>
-    <col min="3" max="3" width="24.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="22" customWidth="1"/>
-    <col min="5" max="7" width="18.28515625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="22"/>
+    <col min="3" max="3" width="34.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B2" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -6961,768 +7565,640 @@
       <c r="C4" s="22" t="s">
         <v>79</v>
       </c>
+      <c r="D4" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="F4" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="21">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>80</v>
       </c>
+      <c r="D5" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="F5" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="21">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>81</v>
       </c>
+      <c r="D6" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="F6" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="21">
         <v>4</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>82</v>
       </c>
+      <c r="D7" s="22" t="s">
+        <v>345</v>
+      </c>
       <c r="F7" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="21">
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>83</v>
       </c>
+      <c r="D8" s="22" t="s">
+        <v>345</v>
+      </c>
       <c r="F8" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="21">
         <v>6</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>39</v>
       </c>
+      <c r="D9" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="F9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:8">
       <c r="A10" s="21">
         <v>7</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>84</v>
       </c>
+      <c r="D10" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="F10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:8">
       <c r="A11" s="21">
         <v>8</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>85</v>
       </c>
+      <c r="D11" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="F11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="21">
         <v>9</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>86</v>
       </c>
+      <c r="D12" s="22" t="s">
+        <v>345</v>
+      </c>
       <c r="F12" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="21">
         <v>10</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>87</v>
       </c>
+      <c r="D13" s="22" t="s">
+        <v>345</v>
+      </c>
       <c r="F13" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="21">
         <v>11</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>88</v>
       </c>
+      <c r="D14" s="22" t="s">
+        <v>345</v>
+      </c>
       <c r="F14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="42">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="21">
         <v>12</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>89</v>
       </c>
+      <c r="D15" s="22" t="s">
+        <v>345</v>
+      </c>
       <c r="F15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="21">
+        <v>13</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="21">
-        <v>13</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="22" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="21">
+        <v>14</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="21">
+        <v>15</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="21">
-        <v>14</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="22" t="s">
+      <c r="F19" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="21">
-        <v>15</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="22" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="21">
+        <v>16</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="21">
-        <v>16</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="22" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="21">
+        <v>17</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="21">
-        <v>17</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="22" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="21">
+        <v>18</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="21">
+        <v>19</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="21">
+        <v>20</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="42">
-      <c r="A21" s="21">
-        <v>18</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="21">
-        <v>19</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="21">
-        <v>20</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="21">
+    <row r="25" spans="1:14">
+      <c r="A25" s="21">
         <v>21</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="21">
-        <v>22</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>95</v>
+      <c r="B25" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="21">
-        <v>23</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>98</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="21">
-        <v>24</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>99</v>
+        <v>44</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="21">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="22" t="s">
+      <c r="C28" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="F28" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="21">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>61</v>
+      <c r="C29" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="21">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="22" t="s">
+      <c r="C30" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="F30" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="21">
-        <v>28</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="21">
-        <v>29</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="21">
-        <v>30</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="21">
-        <v>31</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="21">
-        <v>32</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="21">
-        <v>33</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="21">
-        <v>34</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="21">
-        <v>35</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="21">
-        <v>36</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="21">
-        <v>37</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="21">
-        <v>38</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="21">
-        <v>39</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="42">
-      <c r="A43" s="21">
-        <v>40</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="42">
-      <c r="A44" s="21">
-        <v>41</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="42">
-      <c r="A45" s="21">
-        <v>42</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="63">
-      <c r="A46" s="21">
-        <v>43</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="42">
-      <c r="A47" s="21">
-        <v>44</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="21">
-        <v>45</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H48" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="21">
-        <v>46</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="21">
-        <v>47</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="21">
-        <v>48</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
+      <c r="F31" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H51:N51"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H48:P48"/>
-    <mergeCell ref="H50:N50"/>
+  <mergeCells count="5">
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="F28:N28"/>
+    <mergeCell ref="F30:L30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C47" location="Brethren!A1" display="brethren_id" xr:uid="{5DD6E7D0-33CB-4936-B5EB-C71234A65514}"/>
-    <hyperlink ref="E38" location="district!A1" display="district_id" xr:uid="{00DF2765-5563-4689-AE70-28857D873C10}"/>
-    <hyperlink ref="E39" location="amphur!A1" display="amphur_id" xr:uid="{D2EFBB49-B9EC-4FC7-A466-4D403D993711}"/>
-    <hyperlink ref="E40" location="province!A1" display="province_id" xr:uid="{418A678C-F44E-473E-B650-006518CA156A}"/>
-    <hyperlink ref="E28" location="district!A1" display="district_id" xr:uid="{E8288456-F324-44C7-9159-75B183D6912D}"/>
-    <hyperlink ref="E29" location="amphur!A1" display="amphur_id" xr:uid="{253BB399-183D-4D96-9E99-46D5DC1CD81A}"/>
-    <hyperlink ref="E30" location="province!A1" display="province_id" xr:uid="{B890AADF-319A-45EF-B43D-0820FB9AC0F5}"/>
-    <hyperlink ref="C48" location="history_Edu_STD!A1" display="history_edu_id" xr:uid="{6BC9BBD6-85FE-4AAE-8A7A-9894E317FF17}"/>
-    <hyperlink ref="C49" location="family_STD!A1" display="family_id" xr:uid="{86CE430A-4252-45A7-86B9-EA5FD3FCF2F7}"/>
-    <hyperlink ref="C50" location="income_expenses_STD!A1" display="income_expenses_STD" xr:uid="{CCB89DDD-5EA4-4563-99CF-287DF735892A}"/>
-    <hyperlink ref="C51" location="activity_STD!A1" display="activity_STD_id" xr:uid="{E6C59259-A3CA-4750-BD7C-B731ABE0F33C}"/>
+    <hyperlink ref="C27" location="Brethren!A1" display="brethren_id" xr:uid="{5DD6E7D0-33CB-4936-B5EB-C71234A65514}"/>
+    <hyperlink ref="C28" location="history_Edu_STD!A1" display="history_edu_id" xr:uid="{6BC9BBD6-85FE-4AAE-8A7A-9894E317FF17}"/>
+    <hyperlink ref="C29" location="family_STD!A1" display="family_id" xr:uid="{86CE430A-4252-45A7-86B9-EA5FD3FCF2F7}"/>
+    <hyperlink ref="C30" location="income_expenses_STD!A1" display="income_expenses_STD" xr:uid="{CCB89DDD-5EA4-4563-99CF-287DF735892A}"/>
+    <hyperlink ref="C31" location="activity_STD!A1" display="activity_STD_id" xr:uid="{E6C59259-A3CA-4750-BD7C-B731ABE0F33C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A1FD28-A008-4671-A935-9B5205FD54B5}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+    </row>
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+    </row>
+    <row r="3" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="75" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+    </row>
+    <row r="5" spans="1:8" s="75" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="C6" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="C7" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="C8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="C9" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="C10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801CB99E-C20E-4B72-A538-CD3521CF0E5D}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -7742,29 +8218,29 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="B2" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -7829,7 +8305,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7837,13 +8313,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7851,13 +8327,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7865,13 +8341,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7879,13 +8355,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7893,13 +8369,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7907,13 +8383,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -7928,16 +8404,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C45BC8-0772-4600-ACF7-7D8220652400}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
@@ -7957,33 +8431,33 @@
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="B2" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="12" t="s">
@@ -7992,11 +8466,11 @@
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
@@ -8054,7 +8528,7 @@
         <v>51</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -8065,16 +8539,16 @@
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -8086,15 +8560,15 @@
       <c r="B7" s="17"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -8114,7 +8588,7 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -8134,7 +8608,7 @@
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -8147,14 +8621,14 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -8174,7 +8648,7 @@
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -8186,15 +8660,15 @@
       <c r="B12" s="17"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -8214,7 +8688,7 @@
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -8234,7 +8708,7 @@
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -8247,14 +8721,14 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -8274,7 +8748,7 @@
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -8286,15 +8760,15 @@
       <c r="B17" s="17"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -8314,7 +8788,7 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -8334,7 +8808,7 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
@@ -8347,14 +8821,14 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -8374,7 +8848,7 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -8386,15 +8860,15 @@
       <c r="B22" s="17"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -8414,7 +8888,7 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -8434,7 +8908,7 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
@@ -8447,14 +8921,14 @@
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -8474,7 +8948,7 @@
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -8486,15 +8960,15 @@
       <c r="B27" s="17"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
@@ -8514,7 +8988,7 @@
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
@@ -8534,7 +9008,7 @@
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
@@ -8547,14 +9021,14 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
@@ -8574,7 +9048,7 @@
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -8586,15 +9060,15 @@
       <c r="B32" s="17"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
@@ -8614,7 +9088,7 @@
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
@@ -8634,7 +9108,7 @@
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
@@ -8647,14 +9121,14 @@
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
@@ -8674,7 +9148,7 @@
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -8685,14 +9159,14 @@
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
@@ -8712,7 +9186,7 @@
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -8724,7 +9198,7 @@
       <c r="B39" s="17"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="17" t="s">
@@ -8732,7 +9206,7 @@
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
@@ -8744,7 +9218,7 @@
       <c r="B40" s="17"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="17" t="s">
@@ -8752,7 +9226,7 @@
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
@@ -8764,7 +9238,7 @@
       <c r="B41" s="17"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="17" t="s">
@@ -8772,7 +9246,7 @@
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
@@ -8795,15 +9269,746 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BA3E00-061C-4A8B-8374-139C815C4FB2}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="38.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="62" style="16" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="71">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="71">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="71">
+        <v>28</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="71">
+        <v>30</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="71">
+        <v>31</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="71">
+        <v>32</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="71">
+        <v>33</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="71">
+        <v>34</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="71">
+        <v>35</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="71">
+        <v>36</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="71">
+        <v>37</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="71">
+        <v>38</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="71">
+        <v>39</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="71">
+        <v>40</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="71">
+        <v>41</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="71">
+        <v>42</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="71">
+        <v>43</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="71">
+        <v>44</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="71">
+        <v>45</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="71">
+        <v>48</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="71">
+        <v>49</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="71">
+        <v>50</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="71">
+        <v>51</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="71">
+        <v>52</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="71">
+        <v>53</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" location="history_STD!A1" display="std_id" xr:uid="{BC0CE319-4713-404E-8179-836772E84679}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF5CBD8-7671-4BD9-8923-BC7663553AB4}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="15.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="62" style="16" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="71">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="71">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="71">
+        <v>16</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="71">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="71">
+        <v>18</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="71">
+        <v>19</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="71">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="71">
+        <v>21</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="71">
+        <v>22</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="71">
+        <v>23</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="71">
+        <v>24</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="71">
+        <v>25</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="71">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" location="history_STD!A1" display="std_id" xr:uid="{C2649998-88AB-4878-B6BB-2E7E03B2FE30}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA8DF16-126E-4550-BFDF-901CBDA6B964}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D55"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -8824,31 +10029,31 @@
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="12" t="s">
@@ -8914,7 +10119,7 @@
         <v>51</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8922,13 +10127,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8936,13 +10141,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8950,16 +10155,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8967,13 +10172,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8981,13 +10186,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8995,13 +10200,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9009,13 +10214,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9029,7 +10234,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9037,13 +10242,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9051,13 +10256,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9065,13 +10270,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9079,13 +10284,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9093,13 +10298,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9107,13 +10312,13 @@
         <v>16</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9121,16 +10326,16 @@
         <v>17</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9138,13 +10343,13 @@
         <v>18</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9152,13 +10357,13 @@
         <v>19</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9166,13 +10371,13 @@
         <v>20</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9180,13 +10385,13 @@
         <v>21</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9200,7 +10405,7 @@
         <v>34</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9208,13 +10413,13 @@
         <v>23</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9222,13 +10427,13 @@
         <v>24</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -9236,13 +10441,13 @@
         <v>25</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9250,13 +10455,13 @@
         <v>26</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -9264,13 +10469,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -9278,13 +10483,13 @@
         <v>28</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9292,13 +10497,13 @@
         <v>30</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9306,13 +10511,13 @@
         <v>31</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -9320,13 +10525,13 @@
         <v>32</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -9334,13 +10539,13 @@
         <v>33</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -9354,7 +10559,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -9362,13 +10567,13 @@
         <v>35</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -9376,13 +10581,13 @@
         <v>36</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -9390,13 +10595,13 @@
         <v>37</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -9404,13 +10609,13 @@
         <v>38</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -9418,10 +10623,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -9429,13 +10634,13 @@
         <v>40</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -9443,13 +10648,13 @@
         <v>41</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -9457,13 +10662,13 @@
         <v>42</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -9471,13 +10676,13 @@
         <v>43</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -9491,7 +10696,7 @@
         <v>34</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -9499,13 +10704,13 @@
         <v>45</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9513,13 +10718,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -9527,13 +10732,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -9541,13 +10746,13 @@
         <v>48</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -9555,13 +10760,13 @@
         <v>49</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -9569,13 +10774,13 @@
         <v>50</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -9583,13 +10788,13 @@
         <v>51</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -9597,13 +10802,13 @@
         <v>52</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -9611,13 +10816,13 @@
         <v>53</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -9633,7 +10838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233336A2-D329-424D-A73B-45F3CA83E63F}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -9661,29 +10866,29 @@
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="B2" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -9748,7 +10953,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9756,13 +10961,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9770,13 +10975,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9784,13 +10989,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9798,13 +11003,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9812,13 +11017,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9826,13 +11031,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9840,13 +11045,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -9854,13 +11059,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9868,13 +11073,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -9889,7 +11094,201 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5080DC1-1E87-488C-A0F3-767310B0BB69}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="29.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Sheet3!A1" display="faculty" xr:uid="{E51B2C99-6F6B-4DA8-A45E-33462F5CC23C}"/>
+    <hyperlink ref="B4" location="major!A1" display="major" xr:uid="{8B035133-EFD5-4499-A161-53765E5CA6F5}"/>
+    <hyperlink ref="B5" location="geo!A1" display="geo" xr:uid="{03B5FC5B-EB87-4266-BC65-507FED23C0BC}"/>
+    <hyperlink ref="B6" location="province!A1" display="province" xr:uid="{51720C85-E385-40EA-97D3-9DA71B4F67E2}"/>
+    <hyperlink ref="B7" location="amphur!A1" display="amphur" xr:uid="{2E0529D9-92D0-4830-8016-87D6B74560BE}"/>
+    <hyperlink ref="B8" location="district!A1" display="district" xr:uid="{4396DCCD-2422-4122-BD1B-1AE19C2824E1}"/>
+    <hyperlink ref="B9" location="zipcode!A1" display="zipcode" xr:uid="{706BFD51-35DA-48B6-B1D3-CA6A1D549CD1}"/>
+    <hyperlink ref="B10" location="type_fund!A1" display="type_fund" xr:uid="{B64D6568-A19C-4F11-8E0A-C86C82F5958F}"/>
+    <hyperlink ref="B11" location="history_STD!A1" display="history_STD" xr:uid="{25C62A74-3A52-4A28-98AC-64A71752CF08}"/>
+    <hyperlink ref="B12" location="history_Edu_STD!A1" display="history_Edu_STD" xr:uid="{F61F8793-CFB8-4F3B-AA03-C07CA8A77FF6}"/>
+    <hyperlink ref="B13" location="family_STD!A1" display="family_STD" xr:uid="{7A6B268E-A621-4CDC-8E99-4BF0739D0379}"/>
+    <hyperlink ref="B14" location="income_expenses_STD!A1" display="income_expenses_STD" xr:uid="{CF3B3AF2-3B18-4897-A7FA-03F698C8C4B8}"/>
+    <hyperlink ref="B15" location="activity_STD!A1" display="activity_STD" xr:uid="{C3CB339E-8334-4CE5-8092-D1624596F2BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60FA01A-2711-4D08-9775-6DACCB0285DB}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -9917,29 +11316,29 @@
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="B2" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -10004,7 +11403,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -10012,13 +11411,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -10026,13 +11425,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -10040,13 +11439,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -10054,13 +11453,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -10075,7 +11474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7140714-2F66-49CF-A304-35DBD5E0B9C4}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10103,29 +11502,29 @@
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="B2" s="88" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -10190,7 +11589,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -10198,16 +11597,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -10215,16 +11614,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -10232,16 +11631,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -10249,7 +11648,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>34</v>
@@ -10258,7 +11657,7 @@
         <v>51</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1">
@@ -10269,7 +11668,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>50</v>
@@ -10278,7 +11677,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1">
@@ -10286,16 +11685,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -10306,7 +11705,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>50</v>
@@ -10315,7 +11714,7 @@
         <v>51</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -10330,7 +11729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6602DFCB-383B-4EAC-8FF2-150946658226}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10380,38 +11779,38 @@
       <c r="B3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="87" t="s">
-        <v>258</v>
-      </c>
-      <c r="G3" s="87"/>
+      <c r="F3" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="96"/>
     </row>
     <row r="4" spans="2:12" ht="9.9499999999999993" customHeight="1">
       <c r="B4" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
     </row>
     <row r="5" spans="2:12" ht="9.9499999999999993" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+        <v>142</v>
+      </c>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
     </row>
     <row r="6" spans="2:12" ht="9.9499999999999993" customHeight="1">
       <c r="B6" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="9.9499999999999993" customHeight="1">
       <c r="B7" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="9.9499999999999993" customHeight="1">
       <c r="B8" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J8" s="32" t="s">
         <v>16</v>
@@ -10419,7 +11818,7 @@
     </row>
     <row r="9" spans="2:12" ht="9.9499999999999993" customHeight="1">
       <c r="B9" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J9" s="33" t="s">
         <v>29</v>
@@ -10427,7 +11826,7 @@
     </row>
     <row r="10" spans="2:12" ht="9.9499999999999993" customHeight="1">
       <c r="B10" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J10" s="35" t="s">
         <v>30</v>
@@ -10439,293 +11838,293 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
     </row>
     <row r="13" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="F13" s="99" t="s">
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="F13" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
     </row>
     <row r="14" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="F14" s="106" t="s">
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="F14" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
       <c r="J14" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B15" s="85" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="86"/>
-      <c r="F15" s="106" t="s">
+      <c r="B15" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="112"/>
+      <c r="D15" s="95"/>
+      <c r="F15" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
       <c r="J15" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B16" s="100"/>
-      <c r="C16" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="86"/>
-      <c r="F16" s="106" t="s">
+      <c r="B16" s="109"/>
+      <c r="C16" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="95"/>
+      <c r="F16" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
       <c r="J16" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B17" s="101"/>
-      <c r="C17" s="100"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="106" t="s">
+      <c r="F17" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
       <c r="J17" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
       <c r="D18" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="106" t="s">
+      <c r="F18" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
       <c r="J18" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
     </row>
     <row r="20" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="112" t="s">
+      <c r="F20" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
     </row>
     <row r="21" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B21" s="101"/>
-      <c r="C21" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="86"/>
-      <c r="F21" s="106" t="s">
+      <c r="B21" s="110"/>
+      <c r="C21" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="95"/>
+      <c r="F21" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
       <c r="J21" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B22" s="101"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="106" t="s">
+      <c r="F22" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
       <c r="J22" s="33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
       <c r="D23" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="106" t="s">
+      <c r="F23" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
       <c r="J23" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
       <c r="J24" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="106" t="s">
+      <c r="F25" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
       <c r="J25" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B26" s="101"/>
-      <c r="C26" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="86"/>
-      <c r="F26" s="106" t="s">
+      <c r="B26" s="110"/>
+      <c r="C26" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="95"/>
+      <c r="F26" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
       <c r="J26" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B27" s="101"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="106" t="s">
+      <c r="F27" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
       <c r="J27" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="106" t="s">
+      <c r="F28" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
       <c r="J28" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
     </row>
     <row r="30" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="106" t="s">
+      <c r="F30" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
     </row>
     <row r="31" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B31" s="101"/>
-      <c r="C31" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="86"/>
-      <c r="F31" s="106" t="s">
-        <v>244</v>
-      </c>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="95"/>
+      <c r="F31" s="115" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
       <c r="J31" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B32" s="101"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="106" t="s">
-        <v>246</v>
-      </c>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
+      <c r="F32" s="115" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
       <c r="J32" s="33" t="s">
         <v>61</v>
       </c>
@@ -10734,7 +12133,7 @@
       </c>
     </row>
     <row r="33" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B33" s="101"/>
+      <c r="B33" s="110"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35" t="s">
         <v>91</v>
@@ -10742,10 +12141,10 @@
       <c r="F33" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="110" t="s">
+      <c r="G33" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="111"/>
+      <c r="H33" s="120"/>
       <c r="J33" s="35" t="s">
         <v>62</v>
       </c>
@@ -10754,13 +12153,13 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B34" s="101"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
+        <v>157</v>
+      </c>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="38" t="s">
         <v>95</v>
       </c>
@@ -10772,13 +12171,13 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B35" s="101"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
       <c r="H35" s="38" t="s">
         <v>98</v>
       </c>
@@ -10787,13 +12186,13 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B36" s="101"/>
-      <c r="C36" s="85" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="86"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="95"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
       <c r="H36" s="38" t="s">
         <v>99</v>
       </c>
@@ -10802,13 +12201,13 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B37" s="101"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
       <c r="H37" s="34" t="s">
         <v>65</v>
       </c>
@@ -10817,37 +12216,37 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B38" s="101"/>
+      <c r="B38" s="110"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
       <c r="H38" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B39" s="101"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
+        <v>157</v>
+      </c>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
       <c r="H39" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B40" s="101"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="108"/>
-      <c r="G40" s="109"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="118"/>
       <c r="H40" s="38" t="s">
         <v>22</v>
       </c>
@@ -10856,58 +12255,58 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B41" s="101"/>
-      <c r="C41" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="86"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="110" t="s">
+      <c r="B41" s="110"/>
+      <c r="C41" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="95"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="H41" s="111"/>
+      <c r="H41" s="120"/>
       <c r="J41" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B42" s="101"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
       <c r="H42" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J42" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B43" s="101"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
       <c r="H43" s="38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J43" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B44" s="101"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
+        <v>157</v>
+      </c>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
       <c r="H44" s="38" t="s">
         <v>95</v>
       </c>
@@ -10916,13 +12315,13 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B45" s="102"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
       <c r="H45" s="38" t="s">
         <v>98</v>
       </c>
@@ -10931,37 +12330,37 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B46" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="103"/>
-      <c r="D46" s="86"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
+      <c r="B46" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="112"/>
+      <c r="D46" s="95"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
       <c r="H46" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B47" s="100"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="35" t="s">
         <v>85</v>
       </c>
       <c r="D47" s="35"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
       <c r="H47" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="9.9499999999999993" customHeight="1">
-      <c r="B48" s="101"/>
+      <c r="B48" s="110"/>
       <c r="C48" s="35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D48" s="35"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
       <c r="H48" s="34" t="s">
         <v>61</v>
       </c>
@@ -10970,13 +12369,13 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B49" s="101"/>
+      <c r="B49" s="110"/>
       <c r="C49" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D49" s="35"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
       <c r="H49" s="34" t="s">
         <v>54</v>
       </c>
@@ -10985,13 +12384,13 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B50" s="102"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D50" s="35"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="108"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
       <c r="H50" s="39" t="s">
         <v>22</v>
       </c>
@@ -11000,199 +12399,199 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="F51" s="106" t="s">
+      <c r="F51" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
       <c r="J51" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="91" t="s">
+      <c r="A52" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="92"/>
-      <c r="F52" s="106" t="s">
+      <c r="B52" s="101"/>
+      <c r="F52" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="115"/>
     </row>
     <row r="53" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="90"/>
-      <c r="F53" s="106" t="s">
+      <c r="B53" s="99"/>
+      <c r="F53" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="115"/>
     </row>
     <row r="54" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="88" t="s">
+      <c r="A54" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="88"/>
-      <c r="F54" s="106" t="s">
+      <c r="B54" s="97"/>
+      <c r="F54" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
       <c r="J54" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="B55" s="94"/>
-      <c r="F55" s="106" t="s">
+      <c r="A55" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" s="103"/>
+      <c r="F55" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="115"/>
       <c r="J55" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="95"/>
+      <c r="A56" s="104"/>
       <c r="B56" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
+        <v>142</v>
+      </c>
+      <c r="F56" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
       <c r="J56" s="34" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="96"/>
+      <c r="A57" s="105"/>
       <c r="B57" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F57" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
+      <c r="F57" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
       <c r="J57" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="96"/>
+      <c r="A58" s="105"/>
       <c r="B58" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="113" t="s">
+        <v>222</v>
+      </c>
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="J58" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A59" s="105"/>
+      <c r="B59" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" s="113" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="J59" s="35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A60" s="105"/>
+      <c r="B60" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="104" t="s">
-        <v>224</v>
-      </c>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="J58" s="35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="96"/>
-      <c r="B59" s="35" t="s">
+      <c r="F60" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="G60" s="113"/>
+      <c r="H60" s="113"/>
+      <c r="J60" s="35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A61" s="105"/>
+      <c r="B61" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="104" t="s">
-        <v>256</v>
-      </c>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="J59" s="35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A60" s="96"/>
-      <c r="B60" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" s="104" t="s">
-        <v>243</v>
-      </c>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="J60" s="35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A61" s="96"/>
-      <c r="B61" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="D61" s="86"/>
+      <c r="C61" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="95"/>
     </row>
     <row r="62" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A62" s="96"/>
+      <c r="A62" s="105"/>
       <c r="B62" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="100"/>
+      <c r="C62" s="109"/>
       <c r="D62" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A63" s="105"/>
+      <c r="B63" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="110"/>
+      <c r="D63" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A64" s="105"/>
+      <c r="B64" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="110"/>
+      <c r="D64" s="35" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A63" s="96"/>
-      <c r="B63" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="101"/>
-      <c r="D63" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A64" s="96"/>
-      <c r="B64" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" s="101"/>
-      <c r="D64" s="35" t="s">
-        <v>146</v>
       </c>
       <c r="J64" s="40" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A65" s="96"/>
+      <c r="A65" s="105"/>
       <c r="B65" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="101"/>
+        <v>189</v>
+      </c>
+      <c r="C65" s="110"/>
       <c r="D65" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J65" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A66" s="97"/>
+      <c r="A66" s="106"/>
       <c r="B66" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="101"/>
+        <v>190</v>
+      </c>
+      <c r="C66" s="110"/>
       <c r="D66" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J66" s="34" t="s">
         <v>79</v>
@@ -11200,212 +12599,212 @@
     </row>
     <row r="67" spans="1:10" ht="9.9499999999999993" customHeight="1">
       <c r="A67" s="35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B67" s="35"/>
-      <c r="C67" s="101"/>
+      <c r="C67" s="110"/>
       <c r="D67" s="35" t="s">
         <v>86</v>
       </c>
       <c r="J67" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A68" s="84"/>
+      <c r="A68" s="93"/>
       <c r="B68" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="101"/>
+        <v>142</v>
+      </c>
+      <c r="C68" s="110"/>
       <c r="D68" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="J68" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A69" s="93"/>
+      <c r="B69" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="110"/>
+      <c r="D69" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="H69" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="J69" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A70" s="93"/>
+      <c r="B70" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="110"/>
+      <c r="D70" s="35" t="s">
         <v>189</v>
-      </c>
-      <c r="J68" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A69" s="84"/>
-      <c r="B69" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="101"/>
-      <c r="D69" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="H69" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="J69" s="35" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A70" s="84"/>
-      <c r="B70" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" s="101"/>
-      <c r="D70" s="35" t="s">
-        <v>191</v>
       </c>
       <c r="H70" s="66" t="s">
         <v>29</v>
       </c>
       <c r="J70" s="35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A71" s="84"/>
+      <c r="A71" s="93"/>
       <c r="B71" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="102"/>
+        <v>144</v>
+      </c>
+      <c r="C71" s="111"/>
       <c r="D71" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E71" s="85" t="s">
-        <v>197</v>
-      </c>
-      <c r="F71" s="86"/>
+        <v>190</v>
+      </c>
+      <c r="E71" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="F71" s="95"/>
       <c r="H71" s="37" t="s">
         <v>79</v>
       </c>
       <c r="J71" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A72" s="93"/>
+      <c r="B72" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="95"/>
+      <c r="E72" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="J72" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A73" s="93"/>
+      <c r="B73" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="93"/>
+      <c r="D73" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" s="93"/>
+      <c r="F73" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="J73" s="35" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A72" s="84"/>
-      <c r="B72" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="86"/>
-      <c r="E72" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="F72" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="H72" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="J72" s="35" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A73" s="84"/>
-      <c r="B73" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="84"/>
-      <c r="D73" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E73" s="84"/>
-      <c r="F73" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="H73" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="J73" s="35" t="s">
-        <v>235</v>
-      </c>
-    </row>
     <row r="74" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A74" s="84"/>
+      <c r="A74" s="93"/>
       <c r="B74" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="84"/>
+      <c r="C74" s="93"/>
       <c r="D74" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="93"/>
+      <c r="F74" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="J74" s="35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A75" s="93"/>
+      <c r="B75" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="93"/>
+      <c r="D75" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E74" s="84"/>
-      <c r="F74" s="35" t="s">
+      <c r="E75" s="93"/>
+      <c r="F75" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J75" s="35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A76" s="93"/>
+      <c r="B76" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="93"/>
+      <c r="D76" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="93"/>
+      <c r="F76" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="H74" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="J74" s="35" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A75" s="84"/>
-      <c r="B75" s="35" t="s">
+      <c r="H76" s="37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A77" s="93"/>
+      <c r="B77" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="C75" s="84"/>
-      <c r="D75" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75" s="84"/>
-      <c r="F75" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="H75" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="J75" s="35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A76" s="84"/>
-      <c r="B76" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C76" s="84"/>
-      <c r="D76" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E76" s="84"/>
-      <c r="F76" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="H76" s="37" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A77" s="84"/>
-      <c r="B77" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C77" s="84"/>
+      <c r="C77" s="93"/>
       <c r="D77" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="84"/>
+      <c r="E77" s="93"/>
       <c r="F77" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A78" s="84"/>
+      <c r="A78" s="93"/>
       <c r="B78" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="C78" s="84"/>
+        <v>190</v>
+      </c>
+      <c r="C78" s="93"/>
       <c r="D78" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E78" s="41"/>
     </row>
     <row r="80" spans="1:10" ht="9.9499999999999993" customHeight="1">
       <c r="H80" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="8:8" ht="9.9499999999999993" customHeight="1">
@@ -11420,7 +12819,7 @@
     </row>
     <row r="85" spans="8:8" ht="9.9499999999999993" customHeight="1">
       <c r="H85" s="65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="8:8" ht="9.9499999999999993" customHeight="1">
@@ -11440,7 +12839,7 @@
     </row>
     <row r="89" spans="8:8" ht="9.9499999999999993" customHeight="1">
       <c r="H89" s="37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -11517,7 +12916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDE6C5F-BBCF-47C3-BD1A-6A7BEB059F9E}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -11542,12 +12941,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="24.95" customHeight="1">
-      <c r="C2" s="113" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="C2" s="122" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="43"/>
@@ -11626,8 +13025,8 @@
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="114" t="s">
-        <v>259</v>
+      <c r="D12" s="123" t="s">
+        <v>257</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="53" t="s">
@@ -11637,7 +13036,7 @@
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="115"/>
+      <c r="D13" s="124"/>
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -11645,7 +13044,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="115"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="43"/>
       <c r="F14" s="60" t="s">
         <v>21</v>
@@ -11656,7 +13055,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="115"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="43"/>
       <c r="F15" s="29" t="s">
         <v>65</v>
@@ -11667,7 +13066,7 @@
         <v>79</v>
       </c>
       <c r="C16" s="46"/>
-      <c r="D16" s="115"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="43"/>
       <c r="F16" s="53" t="s">
         <v>61</v>
@@ -11676,7 +13075,7 @@
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="115"/>
+      <c r="D17" s="124"/>
       <c r="E17" s="43"/>
       <c r="F17" s="53" t="s">
         <v>54</v>
@@ -11685,7 +13084,7 @@
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="115"/>
+      <c r="D18" s="124"/>
       <c r="E18" s="43"/>
       <c r="F18" s="53" t="s">
         <v>48</v>
@@ -11696,7 +13095,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="46"/>
-      <c r="D19" s="115"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="43"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -11704,7 +13103,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="46"/>
-      <c r="D20" s="115"/>
+      <c r="D20" s="124"/>
       <c r="E20" s="43"/>
       <c r="H20" s="60" t="s">
         <v>18</v>
@@ -11715,7 +13114,7 @@
         <v>79</v>
       </c>
       <c r="C21" s="46"/>
-      <c r="D21" s="115"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="43"/>
       <c r="F21" s="60" t="s">
         <v>20</v>
@@ -11727,7 +13126,7 @@
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="45"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="116"/>
+      <c r="D22" s="125"/>
       <c r="E22" s="43"/>
       <c r="F22" s="29" t="s">
         <v>61</v>
@@ -11741,8 +13140,8 @@
       <c r="C23" s="46"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
-      <c r="F23" s="117" t="s">
-        <v>260</v>
+      <c r="F23" s="126" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -11752,7 +13151,7 @@
       <c r="C24" s="46"/>
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
-      <c r="F24" s="117"/>
+      <c r="F24" s="126"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="29" t="s">
@@ -11791,7 +13190,7 @@
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="62" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C29" s="46"/>
       <c r="E29" s="43"/>
@@ -11807,8 +13206,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B31" s="114" t="s">
-        <v>276</v>
+      <c r="B31" s="123" t="s">
+        <v>274</v>
       </c>
       <c r="C31" s="46"/>
       <c r="E31" s="43"/>
@@ -11817,18 +13216,18 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="115"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="46"/>
       <c r="E32" s="43"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="115"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="46"/>
       <c r="D33" s="67"/>
       <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="116"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="46"/>
       <c r="D34" s="67"/>
       <c r="E34" s="43"/>
@@ -11847,7 +13246,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
@@ -11864,7 +13263,7 @@
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="69" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -11879,7 +13278,7 @@
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="46"/>
       <c r="B41" s="60" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -12032,7 +13431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B505A153-341C-4B83-BDE2-7ED59CBEB6AD}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -12060,29 +13459,29 @@
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="B2" s="88" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -12144,7 +13543,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -12156,201 +13555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5080DC1-1E87-488C-A0F3-767310B0BB69}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="29.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B3" location="Sheet3!A1" display="faculty" xr:uid="{E51B2C99-6F6B-4DA8-A45E-33462F5CC23C}"/>
-    <hyperlink ref="B4" location="major!A1" display="major" xr:uid="{8B035133-EFD5-4499-A161-53765E5CA6F5}"/>
-    <hyperlink ref="B5" location="geo!A1" display="geo" xr:uid="{03B5FC5B-EB87-4266-BC65-507FED23C0BC}"/>
-    <hyperlink ref="B6" location="province!A1" display="province" xr:uid="{51720C85-E385-40EA-97D3-9DA71B4F67E2}"/>
-    <hyperlink ref="B7" location="amphur!A1" display="amphur" xr:uid="{2E0529D9-92D0-4830-8016-87D6B74560BE}"/>
-    <hyperlink ref="B8" location="district!A1" display="district" xr:uid="{4396DCCD-2422-4122-BD1B-1AE19C2824E1}"/>
-    <hyperlink ref="B9" location="zipcode!A1" display="zipcode" xr:uid="{706BFD51-35DA-48B6-B1D3-CA6A1D549CD1}"/>
-    <hyperlink ref="B10" location="type_fund!A1" display="type_fund" xr:uid="{B64D6568-A19C-4F11-8E0A-C86C82F5958F}"/>
-    <hyperlink ref="B11" location="history_STD!A1" display="history_STD" xr:uid="{25C62A74-3A52-4A28-98AC-64A71752CF08}"/>
-    <hyperlink ref="B12" location="history_Edu_STD!A1" display="history_Edu_STD" xr:uid="{F61F8793-CFB8-4F3B-AA03-C07CA8A77FF6}"/>
-    <hyperlink ref="B13" location="family_STD!A1" display="family_STD" xr:uid="{7A6B268E-A621-4CDC-8E99-4BF0739D0379}"/>
-    <hyperlink ref="B14" location="income_expenses_STD!A1" display="income_expenses_STD" xr:uid="{CF3B3AF2-3B18-4897-A7FA-03F698C8C4B8}"/>
-    <hyperlink ref="B15" location="activity_STD!A1" display="activity_STD" xr:uid="{C3CB339E-8334-4CE5-8092-D1624596F2BE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5D9043-3188-41D2-8C28-17B02A93E9A3}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -12378,29 +13583,29 @@
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="B2" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -12462,7 +13667,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -12479,7 +13684,7 @@
         <v>51</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -12490,7 +13695,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>34</v>
@@ -12499,7 +13704,7 @@
         <v>51</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -12511,7 +13716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B4FEE2-36D3-4A0C-B370-12C27E87E7D2}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -12539,29 +13744,29 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -12632,7 +13837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BD2AFB-A41C-48CA-B2D6-DFDAC021E1BA}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -12660,29 +13865,29 @@
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="84" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -12732,35 +13937,35 @@
     </row>
     <row r="5" spans="1:8">
       <c r="C5" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="63" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -12768,7 +13973,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>34</v>
@@ -12777,7 +13982,7 @@
         <v>69</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -12785,7 +13990,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>50</v>
@@ -12806,7 +14011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A46E4-CD9F-4ADC-82FC-22A41BD76305}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -12834,29 +14039,29 @@
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -12912,7 +14117,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>34</v>
@@ -12921,7 +14126,7 @@
         <v>69</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -12932,7 +14137,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>50</v>
@@ -12949,16 +14154,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -12966,16 +14171,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -12983,13 +14188,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -12997,13 +14202,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -13042,29 +14247,29 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="85" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1">
       <c r="A3" s="12" t="s">
@@ -13123,7 +14328,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>33</v>
@@ -13191,10 +14396,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="K9" s="16" t="s">
         <v>311</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13210,10 +14415,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13229,10 +14434,10 @@
         <v>3</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13248,10 +14453,10 @@
         <v>4</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13267,10 +14472,10 @@
         <v>5</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13408,25 +14613,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -13545,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13553,10 +14758,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G11" s="16">
         <v>1</v>
@@ -13565,7 +14770,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13573,10 +14778,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G12" s="16">
         <v>1</v>
@@ -13585,7 +14790,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13593,10 +14798,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G13" s="16">
         <v>1</v>
@@ -13605,7 +14810,7 @@
         <v>4</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13613,10 +14818,10 @@
         <v>4</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G14" s="16">
         <v>2</v>
@@ -13625,7 +14830,7 @@
         <v>5</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13633,10 +14838,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>335</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>337</v>
       </c>
       <c r="G15" s="16">
         <v>3</v>
@@ -13647,10 +14852,10 @@
         <v>6</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G16" s="16">
         <v>3</v>
@@ -13661,10 +14866,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G17" s="16">
         <v>3</v>
@@ -13675,10 +14880,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G18" s="16">
         <v>3</v>
@@ -13689,10 +14894,10 @@
         <v>9</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G19" s="16">
         <v>3</v>
@@ -13703,10 +14908,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G20" s="16">
         <v>3</v>
@@ -13717,10 +14922,10 @@
         <v>11</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G21" s="16">
         <v>4</v>
@@ -13731,10 +14936,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G22" s="16">
         <v>4</v>
@@ -13745,10 +14950,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G23" s="16">
         <v>4</v>
@@ -13759,10 +14964,10 @@
         <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>345</v>
       </c>
       <c r="G24" s="16">
         <v>5</v>
@@ -13773,10 +14978,10 @@
         <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>344</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>346</v>
       </c>
       <c r="G25" s="16">
         <v>5</v>
@@ -13864,25 +15069,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -13981,25 +15186,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -14132,7 +15337,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -14152,25 +15357,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -14200,7 +15405,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="C4" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>50</v>
@@ -14208,7 +15413,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="C5" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>34</v>
@@ -14216,7 +15421,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>34</v>
@@ -14224,7 +15429,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="C7" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>34</v>
@@ -14263,9 +15468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1EAFF9-0436-4CE7-88A6-3076BFBC4CEB}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
@@ -14284,25 +15487,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
@@ -14428,25 +15631,25 @@
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
